--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C226C29-4D3B-4B81-B49F-11CE6185B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C869CA9-103A-45F1-AFF4-008C52D37EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="181">
   <si>
     <t>UnSettled</t>
   </si>
@@ -576,13 +576,16 @@
   </si>
   <si>
     <t>22 Error Fix</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +729,14 @@
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1417,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,6 +1877,48 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1891,36 +1944,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1987,37 +2040,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2303,7 +2333,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2350,7 @@
     <col min="11" max="11" width="9.140625" style="117" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="235" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="192" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="152" customWidth="1"/>
     <col min="17" max="17" width="4.85546875" style="1" customWidth="1"/>
@@ -2339,15 +2369,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="197">
+      <c r="C2" s="211">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="234"/>
-      <c r="G2" s="202"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2366,7 +2396,7 @@
       <c r="M2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="236" t="s">
+      <c r="N2" s="193" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="171" t="s">
@@ -2389,23 +2419,23 @@
       </c>
       <c r="V2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="209" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="212"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2413,14 +2443,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="140">
-        <v>10</v>
-      </c>
-      <c r="F4" s="164">
         <v>20</v>
       </c>
-      <c r="G4" s="164">
-        <v>2</v>
-      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2446,28 +2472,24 @@
         <v>30</v>
       </c>
       <c r="P4" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="R4" s="154">
         <v>0.84375</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="156">
         <v>-2</v>
       </c>
-      <c r="E5" s="166">
-        <v>20</v>
-      </c>
-      <c r="F5" s="126">
-        <v>70</v>
-      </c>
-      <c r="G5" s="126">
-        <v>3</v>
-      </c>
+      <c r="E5" s="205">
+        <v>10</v>
+      </c>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2489,11 +2511,11 @@
       <c r="N5" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="O5" s="242" t="s">
+      <c r="O5" s="198" t="s">
         <v>86</v>
       </c>
       <c r="P5" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="R5" s="154">
         <v>0.84375</v>
@@ -2504,14 +2526,12 @@
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>860</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="166">
-        <v>10</v>
-      </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="127"/>
       <c r="H6" s="28" t="s">
         <v>147</v>
@@ -2531,14 +2551,14 @@
       <c r="M6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="237" t="s">
+      <c r="N6" s="194" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="176" t="s">
         <v>69</v>
       </c>
       <c r="P6" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="R6" s="154">
         <v>0.85555555555555562</v>
@@ -2554,12 +2574,10 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140">
-        <v>2</v>
-      </c>
-      <c r="F7" s="127">
+      <c r="E7" s="165">
         <v>10</v>
       </c>
+      <c r="F7" s="127"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
@@ -2579,14 +2597,14 @@
       <c r="M7" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="237" t="s">
+      <c r="N7" s="194" t="s">
         <v>85</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>130</v>
@@ -2599,12 +2617,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="203">
+      <c r="E8" s="215">
         <v>50</v>
       </c>
-      <c r="F8" s="205">
-        <v>10</v>
-      </c>
+      <c r="F8" s="217"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2612,7 +2628,7 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="207" t="s">
+      <c r="J8" s="219" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="83" t="s">
@@ -2624,20 +2640,20 @@
       <c r="M8" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="237" t="s">
+      <c r="N8" s="194" t="s">
         <v>94</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="R8" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2646,10 +2662,10 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>7860</v>
-      </c>
-      <c r="E9" s="204"/>
-      <c r="F9" s="206"/>
+        <v>8010</v>
+      </c>
+      <c r="E9" s="216"/>
+      <c r="F9" s="218"/>
       <c r="G9" s="191"/>
       <c r="H9" s="9" t="s">
         <v>71</v>
@@ -2657,7 +2673,7 @@
       <c r="I9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="208"/>
+      <c r="J9" s="220"/>
       <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
@@ -2667,32 +2683,28 @@
       <c r="M9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="237" t="s">
+      <c r="N9" s="194" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="37" t="s">
         <v>64</v>
       </c>
       <c r="P9" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="R9" s="154">
         <v>0.79861111111111116</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="165">
+      <c r="E10" s="205">
         <v>10</v>
       </c>
-      <c r="F10" s="177">
-        <v>70</v>
-      </c>
-      <c r="G10" s="177">
-        <v>7</v>
-      </c>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2711,14 +2723,14 @@
       <c r="M10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="237" t="s">
+      <c r="N10" s="194" t="s">
         <v>123</v>
       </c>
       <c r="O10" s="37" t="s">
         <v>66</v>
       </c>
       <c r="P10" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>126</v>
@@ -2738,15 +2750,11 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="205">
         <v>10</v>
       </c>
-      <c r="F11" s="184">
-        <v>60</v>
-      </c>
-      <c r="G11" s="184">
-        <v>5</v>
-      </c>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
         <v>128</v>
       </c>
@@ -2765,14 +2773,14 @@
       <c r="M11" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="238" t="s">
+      <c r="N11" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="243" t="s">
+      <c r="O11" s="199" t="s">
         <v>161</v>
       </c>
       <c r="P11" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="R11" s="154">
         <v>0.84375</v>
@@ -2782,13 +2790,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="77">
-        <v>3</v>
+      <c r="E12" s="165">
+        <v>10</v>
       </c>
       <c r="F12" s="164"/>
-      <c r="G12" s="164">
-        <v>3</v>
-      </c>
+      <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
         <v>175</v>
       </c>
@@ -2801,20 +2807,20 @@
       <c r="K12" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="239" t="s">
+      <c r="L12" s="196" t="s">
         <v>152</v>
       </c>
       <c r="M12" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="N12" s="237" t="s">
+      <c r="N12" s="194" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="188" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="154">
@@ -2830,34 +2836,32 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7860</v>
+        <v>8010</v>
       </c>
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
-      <c r="L13" s="192"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="194"/>
+      <c r="L13" s="206"/>
+      <c r="P13" s="207"/>
+      <c r="Q13" s="208"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="199" t="s">
+      <c r="E14" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="200"/>
-      <c r="G14" s="189" t="s">
-        <v>179</v>
-      </c>
+      <c r="F14" s="214"/>
+      <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="J14" s="119"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="192"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="194"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="206"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="208"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2872,11 +2876,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="192"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="206"/>
       <c r="M15" s="119"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="194"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="208"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2885,7 +2889,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="J16" s="119"/>
-      <c r="K16" s="240"/>
+      <c r="K16" s="119"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
@@ -2895,8 +2899,8 @@
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="194"/>
+      <c r="P17" s="207"/>
+      <c r="Q17" s="208"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2912,12 +2916,12 @@
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
-      <c r="L18" s="192"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="194"/>
+      <c r="L18" s="206"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="208"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="192"/>
+      <c r="L19" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2941,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,18 +2972,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="227"/>
+      <c r="F1" s="241"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="226" t="s">
+      <c r="H1" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="228"/>
-      <c r="J1" s="227"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="241"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="213">
+      <c r="B2" s="227">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3024,26 +3028,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="229">
+      <c r="K2" s="243">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="231">
+      <c r="L2" s="245">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="216">
+      <c r="M2" s="230">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J43)</f>
-        <v>7820</v>
+        <f>SUM(E2:J44)</f>
+        <v>7970</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="215"/>
+      <c r="B3" s="229"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3058,13 +3062,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="217"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="231"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="214"/>
+      <c r="B4" s="228"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3079,9 +3083,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="217"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="231"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3163,7 +3167,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="218">
+      <c r="B7" s="232">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3180,22 +3184,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="220">
+      <c r="K7" s="234">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="222">
+      <c r="L7" s="236">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="224">
+      <c r="M7" s="238">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="219"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3216,9 +3220,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="221"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="225"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="239"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3298,7 +3302,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="218">
+      <c r="B11" s="232">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3325,7 +3329,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="219"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3382,7 +3386,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="218">
+      <c r="B14" s="232">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3405,7 +3409,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="219"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3429,7 +3433,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="213">
+      <c r="B16" s="227">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3460,7 +3464,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="215"/>
+      <c r="B17" s="229"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3478,7 +3482,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="213">
+      <c r="B18" s="227">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3507,7 +3511,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="214"/>
+      <c r="B19" s="228"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3567,7 +3571,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="211">
+      <c r="B21" s="225">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3595,7 +3599,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="212"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3647,7 +3651,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="197">
+      <c r="B24" s="211">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3676,7 +3680,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="198"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3704,7 +3708,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="197">
+      <c r="B26" s="211">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3735,7 +3739,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="209"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3766,7 +3770,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="197">
+      <c r="B28" s="211">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3788,7 +3792,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="198"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3814,7 +3818,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="197">
+      <c r="B30" s="211">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3837,7 +3841,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="198"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3864,7 +3868,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="197">
+      <c r="B32" s="211">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3886,7 +3890,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="198"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3939,7 +3943,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="197">
+      <c r="B35" s="211">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3966,7 +3970,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="198"/>
+      <c r="B36" s="212"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3988,7 +3992,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="197">
+      <c r="B37" s="211">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4021,7 +4025,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="198"/>
+      <c r="B38" s="212"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4039,7 +4043,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="197">
+      <c r="B39" s="211">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4066,7 +4070,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="209"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4094,7 +4098,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="197">
+      <c r="B41" s="211">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4121,7 +4125,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="209"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4139,8 +4143,8 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="210"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
       </c>
@@ -4163,6 +4167,35 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="130">
+        <v>26</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18">
+        <v>150</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18">
+        <v>50</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18">
+        <v>50</v>
+      </c>
+      <c r="I44" s="18">
+        <v>30</v>
+      </c>
+      <c r="J44" s="18">
+        <v>20</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4197,10 +4230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:CG48"/>
+  <dimension ref="A1:CG51"/>
   <sheetViews>
-    <sheetView topLeftCell="S29" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView topLeftCell="AI32" workbookViewId="0">
+      <selection activeCell="AT51" sqref="AT51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,7 +5783,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5795,7 +5828,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5840,7 +5873,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="BR14" s="158" t="s">
         <v>44</v>
@@ -5885,7 +5918,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7396,10 +7429,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="199" t="s">
+      <c r="AG24" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="200"/>
+      <c r="AH24" s="214"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7419,10 +7452,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="199" t="s">
+      <c r="AZ24" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="200"/>
+      <c r="BA24" s="214"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7442,10 +7475,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="199" t="s">
+      <c r="BR24" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="200"/>
+      <c r="BS24" s="214"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7468,10 +7501,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="201" t="s">
+      <c r="B26" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="202"/>
+      <c r="C26" s="223"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7508,10 +7541,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="201" t="s">
+      <c r="R26" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="202"/>
+      <c r="S26" s="223"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7548,10 +7581,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="201" t="s">
+      <c r="AG26" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="202"/>
+      <c r="AH26" s="223"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7588,10 +7621,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="201" t="s">
+      <c r="AW26" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="202"/>
+      <c r="AX26" s="223"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7628,10 +7661,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="201" t="s">
+      <c r="BM26" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="202"/>
+      <c r="BN26" s="223"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8625,7 +8658,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="205">
+      <c r="AX32" s="217">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8663,7 +8696,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="205">
+      <c r="BN32" s="217">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8812,7 +8845,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="233"/>
+      <c r="AX33" s="250"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8848,7 +8881,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="233"/>
+      <c r="BN33" s="250"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8999,7 +9032,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="206"/>
+      <c r="AX34" s="218"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9037,7 +9070,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="206"/>
+      <c r="BN34" s="218"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9268,10 +9301,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="199" t="s">
+      <c r="B36" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="200"/>
+      <c r="C36" s="214"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9289,10 +9322,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="199" t="s">
+      <c r="R36" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="200"/>
+      <c r="S36" s="214"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9310,10 +9343,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="199" t="s">
+      <c r="AG36" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="200"/>
+      <c r="AH36" s="214"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9331,10 +9364,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="199" t="s">
+      <c r="AW36" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="200"/>
+      <c r="AX36" s="214"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9352,10 +9385,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="199" t="s">
+      <c r="BM36" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="200"/>
+      <c r="BN36" s="214"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9375,10 +9408,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="201" t="s">
+      <c r="B38" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="202"/>
+      <c r="C38" s="223"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9418,10 +9451,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="201" t="s">
+      <c r="S38" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="202"/>
+      <c r="T38" s="223"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9460,6 +9493,55 @@
       </c>
       <c r="AG38" s="36" t="s">
         <v>108</v>
+      </c>
+      <c r="AJ38" s="221" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK38" s="222"/>
+      <c r="AL38" s="223"/>
+      <c r="AM38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO38" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP38" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS38" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT38" s="171" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU38" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW38" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX38" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY38" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="200">
+        <f ca="1">TODAY()</f>
+        <v>45286</v>
       </c>
     </row>
     <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9488,6 +9570,20 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="46"/>
+      <c r="AJ39" s="136"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="117"/>
+      <c r="AP39" s="117"/>
+      <c r="AS39" s="192"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="152"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="24"/>
+      <c r="AZ39" s="49"/>
     </row>
     <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="140">
@@ -9572,6 +9668,51 @@
       <c r="AG40" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ40" s="140">
+        <v>10</v>
+      </c>
+      <c r="AK40" s="164">
+        <v>20</v>
+      </c>
+      <c r="AL40" s="164">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO40" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP40" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ40" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR40" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS40" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT40" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU40" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ40" s="49"/>
     </row>
     <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="166">
@@ -9656,6 +9797,51 @@
       <c r="AG41" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ41" s="166">
+        <v>20</v>
+      </c>
+      <c r="AK41" s="126">
+        <v>70</v>
+      </c>
+      <c r="AL41" s="126">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN41" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO41" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP41" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ41" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR41" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS41" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT41" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU41" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ41" s="49"/>
     </row>
     <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="166">
@@ -9738,6 +9924,49 @@
       <c r="AG42" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ42" s="166">
+        <v>10</v>
+      </c>
+      <c r="AK42" s="127">
+        <v>20</v>
+      </c>
+      <c r="AL42" s="127"/>
+      <c r="AM42" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO42" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP42" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ42" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS42" s="194" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT42" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU42" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ42" s="49"/>
     </row>
     <row r="43" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="140">
@@ -9826,10 +10055,55 @@
       <c r="AG43" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ43" s="140">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="127">
+        <v>10</v>
+      </c>
+      <c r="AL43" s="127"/>
+      <c r="AM43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN43" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO43" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP43" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ43" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR43" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS43" s="194" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT43" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU43" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AV43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW43" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ43" s="49"/>
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="205">
+      <c r="C44" s="217">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9867,10 +10141,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="203">
+      <c r="S44" s="215">
         <v>25</v>
       </c>
-      <c r="T44" s="205">
+      <c r="T44" s="217">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -9879,7 +10153,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="207" t="s">
+      <c r="W44" s="219" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -9908,10 +10182,53 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ44" s="215">
+        <v>50</v>
+      </c>
+      <c r="AK44" s="217">
+        <v>10</v>
+      </c>
+      <c r="AL44" s="190"/>
+      <c r="AM44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN44" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO44" s="219" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP44" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR44" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS44" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT44" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU44" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ44" s="49"/>
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="233"/>
+      <c r="C45" s="250"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9945,15 +10262,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="204"/>
-      <c r="T45" s="206"/>
+      <c r="S45" s="216"/>
+      <c r="T45" s="218"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="208"/>
+      <c r="W45" s="220"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -9980,10 +10297,47 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="AJ45" s="216"/>
+      <c r="AK45" s="218"/>
+      <c r="AL45" s="191"/>
+      <c r="AM45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN45" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO45" s="220"/>
+      <c r="AP45" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ45" s="180" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR45" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS45" s="194" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT45" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU45" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="154">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ45" s="49"/>
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="206"/>
+      <c r="C46" s="218"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -10062,6 +10416,53 @@
       <c r="AG46" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="AJ46" s="165">
+        <v>10</v>
+      </c>
+      <c r="AK46" s="177">
+        <v>70</v>
+      </c>
+      <c r="AL46" s="177">
+        <v>7</v>
+      </c>
+      <c r="AM46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO46" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP46" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR46" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS46" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU46" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW46" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ46" s="49"/>
     </row>
     <row r="47" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="140">
@@ -10146,12 +10547,57 @@
       <c r="AG47" s="46" t="s">
         <v>160</v>
       </c>
+      <c r="AJ47" s="140">
+        <v>10</v>
+      </c>
+      <c r="AK47" s="184">
+        <v>60</v>
+      </c>
+      <c r="AL47" s="184">
+        <v>5</v>
+      </c>
+      <c r="AM47" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN47" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO47" s="183" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP47" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ47" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR47" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS47" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT47" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU47" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ47" s="49"/>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="199" t="s">
+      <c r="B48" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="200"/>
+      <c r="C48" s="214"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -10164,14 +10610,16 @@
       <c r="J48" s="138"/>
       <c r="K48" s="50"/>
       <c r="L48" s="157"/>
-      <c r="M48" s="115"/>
+      <c r="M48" s="115" t="s">
+        <v>159</v>
+      </c>
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="199" t="s">
+      <c r="S48" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="200"/>
+      <c r="T48" s="214"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -10184,13 +10632,122 @@
       <c r="AA48" s="138"/>
       <c r="AB48" s="79"/>
       <c r="AC48" s="157"/>
-      <c r="AD48" s="115"/>
+      <c r="AD48" s="115" t="s">
+        <v>160</v>
+      </c>
       <c r="AE48" s="65"/>
       <c r="AF48" s="65"/>
       <c r="AG48" s="168"/>
+      <c r="AJ48" s="77">
+        <v>3</v>
+      </c>
+      <c r="AK48" s="164"/>
+      <c r="AL48" s="164">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN48" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO48" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP48" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ48" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR48" s="187" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS48" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT48" s="188" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU48" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AV48" s="24"/>
+      <c r="AW48" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ48" s="49"/>
+    </row>
+    <row r="49" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ49" s="136"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="119"/>
+      <c r="AP49" s="119"/>
+      <c r="AQ49" s="206"/>
+      <c r="AS49" s="192"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="207"/>
+      <c r="AV49" s="208"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="24"/>
+      <c r="AZ49" s="49"/>
+    </row>
+    <row r="50" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="213" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK50" s="214"/>
+      <c r="AL50" s="189" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM50" s="9">
+        <f>SUM(AJ40:AL48)</f>
+        <v>395</v>
+      </c>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="119"/>
+      <c r="AP50" s="119"/>
+      <c r="AQ50" s="206"/>
+      <c r="AS50" s="192"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="207"/>
+      <c r="AV50" s="208"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="24"/>
+      <c r="AZ50" s="49"/>
+    </row>
+    <row r="51" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ51" s="201"/>
+      <c r="AK51" s="116"/>
+      <c r="AL51" s="116"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="114"/>
+      <c r="AO51" s="202"/>
+      <c r="AP51" s="203"/>
+      <c r="AQ51" s="247"/>
+      <c r="AR51" s="202"/>
+      <c r="AS51" s="204"/>
+      <c r="AT51" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU51" s="248"/>
+      <c r="AV51" s="249"/>
+      <c r="AW51" s="65"/>
+      <c r="AX51" s="65"/>
+      <c r="AY51" s="115"/>
+      <c r="AZ51" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="31">
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10204,17 +10761,26 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="S44:S45"/>
     <mergeCell ref="T44:T45"/>
     <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C869CA9-103A-45F1-AFF4-008C52D37EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7A0B0-1F53-405B-86FE-19AB361B88D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="183">
   <si>
     <t>UnSettled</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Rw - Lucknow</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1971,6 +1977,66 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1980,65 +2046,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2047,8 +2056,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,7 +2358,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2367,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
@@ -2445,7 +2470,9 @@
       <c r="E4" s="140">
         <v>20</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="251">
+        <v>20</v>
+      </c>
       <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
         <v>1</v>
@@ -2472,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="154">
-        <v>0.4375</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="R4" s="154">
         <v>0.84375</v>
@@ -2488,7 +2515,7 @@
       <c r="E5" s="205">
         <v>10</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="252"/>
       <c r="G5" s="126"/>
       <c r="H5" s="9" t="s">
         <v>136</v>
@@ -2526,12 +2553,12 @@
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1010</v>
+        <v>1170</v>
       </c>
       <c r="E6" s="166">
         <v>30</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="253"/>
       <c r="G6" s="127"/>
       <c r="H6" s="28" t="s">
         <v>147</v>
@@ -2577,7 +2604,7 @@
       <c r="E7" s="165">
         <v>10</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
@@ -2604,7 +2631,7 @@
         <v>90</v>
       </c>
       <c r="P7" s="154">
-        <v>0.4375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>130</v>
@@ -2620,7 +2647,7 @@
       <c r="E8" s="215">
         <v>50</v>
       </c>
-      <c r="F8" s="217"/>
+      <c r="F8" s="254"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2662,10 +2689,12 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8010</v>
+        <v>8170</v>
       </c>
       <c r="E9" s="216"/>
-      <c r="F9" s="218"/>
+      <c r="F9" s="165">
+        <v>20</v>
+      </c>
       <c r="G9" s="191"/>
       <c r="H9" s="9" t="s">
         <v>71</v>
@@ -2690,7 +2719,7 @@
         <v>64</v>
       </c>
       <c r="P9" s="154">
-        <v>0.4375</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="R9" s="154">
         <v>0.79861111111111116</v>
@@ -2703,7 +2732,9 @@
       <c r="E10" s="205">
         <v>10</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="165">
+        <v>10</v>
+      </c>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
@@ -2730,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="P10" s="154">
-        <v>0.4375</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>126</v>
@@ -2753,7 +2784,9 @@
       <c r="E11" s="205">
         <v>10</v>
       </c>
-      <c r="F11" s="184"/>
+      <c r="F11" s="255">
+        <v>100</v>
+      </c>
       <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
         <v>128</v>
@@ -2780,7 +2813,7 @@
         <v>161</v>
       </c>
       <c r="P11" s="154">
-        <v>0.4375</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="R11" s="154">
         <v>0.84375</v>
@@ -2793,7 +2826,9 @@
       <c r="E12" s="165">
         <v>10</v>
       </c>
-      <c r="F12" s="164"/>
+      <c r="F12" s="251">
+        <v>10</v>
+      </c>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
         <v>175</v>
@@ -2811,16 +2846,16 @@
         <v>152</v>
       </c>
       <c r="M12" s="187" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="N12" s="194" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="188" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="P12" s="154">
-        <v>0.4375</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="154">
@@ -2836,7 +2871,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8010</v>
+        <v>8170</v>
       </c>
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
@@ -2855,7 +2890,7 @@
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
@@ -2873,7 +2908,7 @@
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="197"/>
@@ -2886,7 +2921,7 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="20"/>
       <c r="J16" s="119"/>
       <c r="K16" s="119"/>
@@ -2895,7 +2930,7 @@
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
@@ -2912,7 +2947,7 @@
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
@@ -2924,7 +2959,7 @@
       <c r="L19" s="206"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
@@ -2935,7 +2970,6 @@
     <mergeCell ref="Q13:Q15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E2:G2"/>
   </mergeCells>
@@ -2945,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,18 +3006,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="240" t="s">
+      <c r="E1" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="241"/>
+      <c r="F1" s="225"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="240" t="s">
+      <c r="H1" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="242"/>
-      <c r="J1" s="241"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3028,26 +3062,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="243">
+      <c r="K2" s="230">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="245">
+      <c r="L2" s="232">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="230">
+      <c r="M2" s="234">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J44)</f>
-        <v>7970</v>
+        <f>SUM(E2:J45)</f>
+        <v>8130</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="229"/>
+      <c r="B3" s="228"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3062,13 +3096,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="235"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="228"/>
+      <c r="B4" s="229"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3083,9 +3117,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="235"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3167,7 +3201,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="232">
+      <c r="B7" s="236">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3184,22 +3218,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="234">
+      <c r="K7" s="238">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="236">
+      <c r="L7" s="240">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="238">
+      <c r="M7" s="242">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="233"/>
+      <c r="B8" s="237"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3220,9 +3254,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="243"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3302,7 +3336,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="232">
+      <c r="B11" s="236">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3329,7 +3363,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="233"/>
+      <c r="B12" s="237"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3386,7 +3420,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="232">
+      <c r="B14" s="236">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3409,7 +3443,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="233"/>
+      <c r="B15" s="237"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3464,7 +3498,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="229"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3511,7 +3545,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="228"/>
+      <c r="B19" s="229"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3571,7 +3605,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="225">
+      <c r="B21" s="245">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3599,7 +3633,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="226"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3739,7 +3773,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="224"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -4070,7 +4104,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="224"/>
+      <c r="B40" s="244"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4125,7 +4159,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="224"/>
+      <c r="B42" s="244"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4172,10 +4206,10 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="130">
+      <c r="B44" s="211">
         <v>26</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="18">
         <v>150</v>
       </c>
@@ -4197,13 +4231,41 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="257"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="256">
+        <v>100</v>
+      </c>
+      <c r="H45" s="256">
+        <v>20</v>
+      </c>
+      <c r="I45" s="256">
+        <v>20</v>
+      </c>
+      <c r="J45" s="256">
+        <v>20</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="25">
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4213,16 +4275,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8845,7 +8902,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="250"/>
+      <c r="AX33" s="247"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8881,7 +8938,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="250"/>
+      <c r="BN33" s="247"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -10228,7 +10285,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="250"/>
+      <c r="C45" s="247"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10733,14 +10790,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="202"/>
       <c r="AP51" s="203"/>
-      <c r="AQ51" s="247"/>
+      <c r="AQ51" s="248"/>
       <c r="AR51" s="202"/>
       <c r="AS51" s="204"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="248"/>
-      <c r="AV51" s="249"/>
+      <c r="AU51" s="249"/>
+      <c r="AV51" s="250"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -10748,6 +10805,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10763,22 +10836,6 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
-    <mergeCell ref="AO44:AO45"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7A0B0-1F53-405B-86FE-19AB361B88D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C591A4-BEDA-4892-98B2-66497E71188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="184">
   <si>
     <t>UnSettled</t>
   </si>
@@ -585,13 +585,16 @@
   </si>
   <si>
     <t>Rw - Lucknow</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +746,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1434,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1925,6 +1936,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1956,97 +1982,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -2056,25 +2085,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2358,7 +2406,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,15 +2442,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="211">
+      <c r="C2" s="216">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="221" t="s">
+      <c r="E2" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="222"/>
-      <c r="G2" s="223"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="226"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2444,23 +2492,23 @@
       </c>
       <c r="V2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="214" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="212"/>
+      <c r="C3" s="217"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="210"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2468,11 +2516,9 @@
         <v>35</v>
       </c>
       <c r="E4" s="140">
-        <v>20</v>
-      </c>
-      <c r="F4" s="251">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F4" s="206"/>
       <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
         <v>1</v>
@@ -2499,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="154">
-        <v>0.78819444444444453</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R4" s="154">
         <v>0.84375</v>
@@ -2515,7 +2561,7 @@
       <c r="E5" s="205">
         <v>10</v>
       </c>
-      <c r="F5" s="252"/>
+      <c r="F5" s="207"/>
       <c r="G5" s="126"/>
       <c r="H5" s="9" t="s">
         <v>136</v>
@@ -2542,23 +2588,23 @@
         <v>86</v>
       </c>
       <c r="P5" s="154">
-        <v>0.4375</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R5" s="154">
         <v>0.84375</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="E6" s="166">
-        <v>30</v>
-      </c>
-      <c r="F6" s="253"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="208"/>
       <c r="G6" s="127"/>
       <c r="H6" s="28" t="s">
         <v>147</v>
@@ -2585,13 +2631,13 @@
         <v>69</v>
       </c>
       <c r="P6" s="154">
-        <v>0.4375</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R6" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2601,10 +2647,8 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="165">
-        <v>10</v>
-      </c>
-      <c r="F7" s="253"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="208"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
@@ -2640,14 +2684,14 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="T7" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="215">
-        <v>50</v>
-      </c>
-      <c r="F8" s="254"/>
+      <c r="E8" s="220">
+        <v>25</v>
+      </c>
+      <c r="F8" s="209"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2655,7 +2699,7 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="219" t="s">
+      <c r="J8" s="222" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="83" t="s">
@@ -2674,7 +2718,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="154">
-        <v>0.4375</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R8" s="154">
         <v>0.85555555555555562</v>
@@ -2689,12 +2733,10 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8170</v>
-      </c>
-      <c r="E9" s="216"/>
-      <c r="F9" s="165">
-        <v>20</v>
-      </c>
+        <v>8260</v>
+      </c>
+      <c r="E9" s="221"/>
+      <c r="F9" s="165"/>
       <c r="G9" s="191"/>
       <c r="H9" s="9" t="s">
         <v>71</v>
@@ -2702,7 +2744,7 @@
       <c r="I9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="220"/>
+      <c r="J9" s="223"/>
       <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
@@ -2719,7 +2761,7 @@
         <v>64</v>
       </c>
       <c r="P9" s="154">
-        <v>0.78819444444444453</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R9" s="154">
         <v>0.79861111111111116</v>
@@ -2729,12 +2771,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="205">
+      <c r="E10" s="271">
         <v>10</v>
       </c>
-      <c r="F10" s="165">
-        <v>10</v>
-      </c>
+      <c r="F10" s="165"/>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
@@ -2761,7 +2801,7 @@
         <v>66</v>
       </c>
       <c r="P10" s="154">
-        <v>0.78819444444444453</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>126</v>
@@ -2770,7 +2810,7 @@
         <v>0.84375</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2779,14 +2819,12 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="205">
+        <v>90</v>
+      </c>
+      <c r="E11" s="271">
         <v>10</v>
       </c>
-      <c r="F11" s="255">
-        <v>100</v>
-      </c>
+      <c r="F11" s="210"/>
       <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
         <v>128</v>
@@ -2813,22 +2851,18 @@
         <v>161</v>
       </c>
       <c r="P11" s="154">
-        <v>0.78819444444444453</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R11" s="154">
         <v>0.84375</v>
       </c>
       <c r="T11" s="24" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="165">
-        <v>10</v>
-      </c>
-      <c r="F12" s="251">
-        <v>10</v>
-      </c>
+      <c r="E12" s="165"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
         <v>175</v>
@@ -2862,7 +2896,7 @@
         <v>0.84375</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2876,27 +2910,27 @@
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
-      <c r="L13" s="206"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
+      <c r="L13" s="211"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="213"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="213" t="s">
+      <c r="E14" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="214"/>
+      <c r="F14" s="219"/>
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
-      <c r="L14" s="206"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="208"/>
+      <c r="L14" s="211"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="213"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2912,10 +2946,10 @@
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="197"/>
-      <c r="L15" s="206"/>
+      <c r="L15" s="211"/>
       <c r="M15" s="119"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="208"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="213"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2934,8 +2968,8 @@
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="208"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="213"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2951,12 +2985,12 @@
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
-      <c r="L18" s="206"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="208"/>
+      <c r="L18" s="211"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="213"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="206"/>
+      <c r="L19" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2979,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,18 +3040,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="224" t="s">
+      <c r="E1" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="225"/>
+      <c r="F1" s="245"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="226"/>
-      <c r="J1" s="225"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="245"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3035,7 +3069,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="227">
+      <c r="B2" s="231">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3062,11 +3096,11 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="230">
+      <c r="K2" s="247">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="232">
+      <c r="L2" s="249">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
@@ -3081,7 +3115,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="228"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3096,13 +3130,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="233"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="250"/>
       <c r="M3" s="235"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="229"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3117,8 +3151,8 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="233"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="250"/>
       <c r="M4" s="235"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3467,7 +3501,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="227">
+      <c r="B16" s="231">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3498,7 +3532,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="228"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3516,7 +3550,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="227">
+      <c r="B18" s="231">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3545,7 +3579,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="229"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3605,7 +3639,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="245">
+      <c r="B21" s="229">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3633,7 +3667,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3685,7 +3719,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="211">
+      <c r="B24" s="216">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3714,7 +3748,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="212"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3742,7 +3776,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="211">
+      <c r="B26" s="216">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3773,7 +3807,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="244"/>
+      <c r="B27" s="228"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3804,7 +3838,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="211">
+      <c r="B28" s="216">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3826,7 +3860,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="212"/>
+      <c r="B29" s="217"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3852,7 +3886,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="211">
+      <c r="B30" s="216">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3875,7 +3909,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="212"/>
+      <c r="B31" s="217"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3902,7 +3936,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="211">
+      <c r="B32" s="216">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3924,7 +3958,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="212"/>
+      <c r="B33" s="217"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3977,7 +4011,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="211">
+      <c r="B35" s="216">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4004,7 +4038,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="212"/>
+      <c r="B36" s="217"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4026,7 +4060,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="211">
+      <c r="B37" s="216">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4059,7 +4093,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="212"/>
+      <c r="B38" s="217"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4077,7 +4111,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="211">
+      <c r="B39" s="216">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4104,7 +4138,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="244"/>
+      <c r="B40" s="228"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4132,7 +4166,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="211">
+      <c r="B41" s="216">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4159,7 +4193,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="244"/>
+      <c r="B42" s="228"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4177,7 +4211,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="212"/>
+      <c r="B43" s="217"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4206,7 +4240,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="211">
+      <c r="B44" s="216">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4232,40 +4266,59 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="257"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="256">
+      <c r="G45" s="18">
         <v>100</v>
       </c>
-      <c r="H45" s="256">
+      <c r="H45" s="18">
         <v>20</v>
       </c>
-      <c r="I45" s="256">
+      <c r="I45" s="18">
         <v>20</v>
       </c>
-      <c r="J45" s="256">
+      <c r="J45" s="18">
         <v>20</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="130">
+        <v>27</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="272">
+        <v>50</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="272">
+        <v>20</v>
+      </c>
+      <c r="J46" s="272">
+        <v>20</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4275,11 +4328,17 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4289,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG51"/>
   <sheetViews>
-    <sheetView topLeftCell="AI32" workbookViewId="0">
-      <selection activeCell="AT51" sqref="AT51"/>
+    <sheetView topLeftCell="BB34" workbookViewId="0">
+      <selection activeCell="BN53" sqref="BN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5840,7 +5899,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5885,7 +5944,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5930,7 +5989,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="BR14" s="158" t="s">
         <v>44</v>
@@ -5975,7 +6034,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7486,10 +7545,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="213" t="s">
+      <c r="AG24" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="214"/>
+      <c r="AH24" s="219"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7509,10 +7568,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="213" t="s">
+      <c r="AZ24" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="214"/>
+      <c r="BA24" s="219"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7532,10 +7591,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="213" t="s">
+      <c r="BR24" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="214"/>
+      <c r="BS24" s="219"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7558,10 +7617,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="221" t="s">
+      <c r="B26" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="223"/>
+      <c r="C26" s="226"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7598,10 +7657,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="221" t="s">
+      <c r="R26" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="223"/>
+      <c r="S26" s="226"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7638,10 +7697,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="221" t="s">
+      <c r="AG26" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="223"/>
+      <c r="AH26" s="226"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7678,10 +7737,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="221" t="s">
+      <c r="AW26" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="223"/>
+      <c r="AX26" s="226"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7718,10 +7777,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="221" t="s">
+      <c r="BM26" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="223"/>
+      <c r="BN26" s="226"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8715,7 +8774,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="217">
+      <c r="AX32" s="251">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8753,7 +8812,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="217">
+      <c r="BN32" s="251">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8902,7 +8961,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="247"/>
+      <c r="AX33" s="252"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8938,7 +8997,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="247"/>
+      <c r="BN33" s="252"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9089,7 +9148,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="218"/>
+      <c r="AX34" s="253"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9127,7 +9186,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="218"/>
+      <c r="BN34" s="253"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9358,10 +9417,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="214"/>
+      <c r="C36" s="219"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9379,10 +9438,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="213" t="s">
+      <c r="R36" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="214"/>
+      <c r="S36" s="219"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9400,10 +9459,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="213" t="s">
+      <c r="AG36" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="214"/>
+      <c r="AH36" s="219"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9421,10 +9480,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="213" t="s">
+      <c r="AW36" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="214"/>
+      <c r="AX36" s="219"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9442,10 +9501,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="213" t="s">
+      <c r="BM36" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="214"/>
+      <c r="BN36" s="219"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9465,10 +9524,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="221" t="s">
+      <c r="B38" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="223"/>
+      <c r="C38" s="226"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9508,10 +9567,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="221" t="s">
+      <c r="S38" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="223"/>
+      <c r="T38" s="226"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9551,11 +9610,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="221" t="s">
+      <c r="AJ38" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="222"/>
-      <c r="AL38" s="223"/>
+      <c r="AK38" s="225"/>
+      <c r="AL38" s="226"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9598,7 +9657,51 @@
       <c r="AZ38" s="44"/>
       <c r="BA38" s="200">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
+      </c>
+      <c r="BD38" s="224" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE38" s="225"/>
+      <c r="BF38" s="226"/>
+      <c r="BG38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI38" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ38" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM38" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN38" s="171" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO38" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ38" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR38" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS38" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9641,6 +9744,22 @@
       <c r="AX39" s="1"/>
       <c r="AY39" s="24"/>
       <c r="AZ39" s="49"/>
+      <c r="BD39" s="136"/>
+      <c r="BE39" s="257"/>
+      <c r="BF39" s="258"/>
+      <c r="BG39" s="259"/>
+      <c r="BH39" s="260"/>
+      <c r="BI39" s="261"/>
+      <c r="BJ39" s="261"/>
+      <c r="BK39" s="259"/>
+      <c r="BL39" s="259"/>
+      <c r="BM39" s="262"/>
+      <c r="BN39" s="258"/>
+      <c r="BO39" s="263"/>
+      <c r="BP39" s="257"/>
+      <c r="BQ39" s="257"/>
+      <c r="BR39" s="257"/>
+      <c r="BS39" s="46"/>
     </row>
     <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="140">
@@ -9770,6 +9889,48 @@
         <v>168</v>
       </c>
       <c r="AZ40" s="49"/>
+      <c r="BD40" s="140">
+        <v>20</v>
+      </c>
+      <c r="BE40" s="206">
+        <v>20</v>
+      </c>
+      <c r="BF40" s="164"/>
+      <c r="BG40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI40" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ40" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK40" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL40" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM40" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN40" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO40" s="264">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="BP40" s="257"/>
+      <c r="BQ40" s="264">
+        <v>0.84375</v>
+      </c>
+      <c r="BR40" s="257"/>
+      <c r="BS40" s="46" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="166">
@@ -9899,6 +10060,46 @@
         <v>168</v>
       </c>
       <c r="AZ41" s="49"/>
+      <c r="BD41" s="205">
+        <v>10</v>
+      </c>
+      <c r="BE41" s="207"/>
+      <c r="BF41" s="126"/>
+      <c r="BG41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH41" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI41" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ41" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK41" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL41" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM41" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN41" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO41" s="264">
+        <v>0.4375</v>
+      </c>
+      <c r="BP41" s="257"/>
+      <c r="BQ41" s="264">
+        <v>0.84375</v>
+      </c>
+      <c r="BR41" s="257"/>
+      <c r="BS41" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="166">
@@ -10024,6 +10225,46 @@
         <v>168</v>
       </c>
       <c r="AZ42" s="49"/>
+      <c r="BD42" s="166">
+        <v>30</v>
+      </c>
+      <c r="BE42" s="208"/>
+      <c r="BF42" s="127"/>
+      <c r="BG42" s="265" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI42" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ42" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK42" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM42" s="194" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN42" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO42" s="264">
+        <v>0.4375</v>
+      </c>
+      <c r="BP42" s="257"/>
+      <c r="BQ42" s="264">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="BR42" s="257"/>
+      <c r="BS42" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="43" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="140">
@@ -10157,10 +10398,52 @@
         <v>168</v>
       </c>
       <c r="AZ43" s="49"/>
+      <c r="BD43" s="165">
+        <v>10</v>
+      </c>
+      <c r="BE43" s="208"/>
+      <c r="BF43" s="127"/>
+      <c r="BG43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH43" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI43" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ43" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK43" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL43" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM43" s="194" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN43" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO43" s="264">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BP43" s="257" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ43" s="264">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="BR43" s="257"/>
+      <c r="BS43" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="217">
+      <c r="C44" s="251">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10198,10 +10481,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="215">
+      <c r="S44" s="220">
         <v>25</v>
       </c>
-      <c r="T44" s="217">
+      <c r="T44" s="251">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10210,7 +10493,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="219" t="s">
+      <c r="W44" s="222" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10239,10 +10522,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="215">
+      <c r="AJ44" s="220">
         <v>50</v>
       </c>
-      <c r="AK44" s="217">
+      <c r="AK44" s="251">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10252,7 +10535,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="219" t="s">
+      <c r="AO44" s="222" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10282,10 +10565,50 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
+      <c r="BD44" s="220">
+        <v>50</v>
+      </c>
+      <c r="BE44" s="209"/>
+      <c r="BF44" s="190"/>
+      <c r="BG44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH44" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI44" s="222" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ44" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL44" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM44" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN44" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO44" s="264">
+        <v>0.4375</v>
+      </c>
+      <c r="BP44" s="257"/>
+      <c r="BQ44" s="264">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="BR44" s="257"/>
+      <c r="BS44" s="46" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="247"/>
+      <c r="C45" s="252"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10319,15 +10642,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="216"/>
-      <c r="T45" s="218"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="253"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="220"/>
+      <c r="W45" s="223"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10354,8 +10677,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="216"/>
-      <c r="AK45" s="218"/>
+      <c r="AJ45" s="221"/>
+      <c r="AK45" s="253"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -10363,7 +10686,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="220"/>
+      <c r="AO45" s="223"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10391,10 +10714,48 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
+      <c r="BD45" s="221"/>
+      <c r="BE45" s="165">
+        <v>20</v>
+      </c>
+      <c r="BF45" s="191"/>
+      <c r="BG45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH45" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI45" s="223"/>
+      <c r="BJ45" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK45" s="180" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL45" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM45" s="194" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN45" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO45" s="264">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="BP45" s="257"/>
+      <c r="BQ45" s="264">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="BR45" s="257"/>
+      <c r="BS45" s="46" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="218"/>
+      <c r="C46" s="253"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -10520,6 +10881,50 @@
         <v>168</v>
       </c>
       <c r="AZ46" s="49"/>
+      <c r="BD46" s="205">
+        <v>10</v>
+      </c>
+      <c r="BE46" s="165">
+        <v>10</v>
+      </c>
+      <c r="BF46" s="177"/>
+      <c r="BG46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI46" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ46" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL46" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM46" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO46" s="264">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="BP46" s="257" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ46" s="264">
+        <v>0.84375</v>
+      </c>
+      <c r="BR46" s="257"/>
+      <c r="BS46" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="47" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="140">
@@ -10649,12 +11054,54 @@
         <v>168</v>
       </c>
       <c r="AZ47" s="49"/>
+      <c r="BD47" s="205">
+        <v>10</v>
+      </c>
+      <c r="BE47" s="210">
+        <v>100</v>
+      </c>
+      <c r="BF47" s="184"/>
+      <c r="BG47" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH47" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI47" s="183" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ47" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK47" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL47" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM47" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN47" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO47" s="264">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="BP47" s="257"/>
+      <c r="BQ47" s="264">
+        <v>0.84375</v>
+      </c>
+      <c r="BR47" s="257"/>
+      <c r="BS47" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="214"/>
+      <c r="C48" s="219"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -10673,10 +11120,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="213" t="s">
+      <c r="S48" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="214"/>
+      <c r="T48" s="219"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -10738,8 +11185,50 @@
         <v>168</v>
       </c>
       <c r="AZ48" s="49"/>
+      <c r="BD48" s="165">
+        <v>10</v>
+      </c>
+      <c r="BE48" s="206">
+        <v>10</v>
+      </c>
+      <c r="BF48" s="164"/>
+      <c r="BG48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH48" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI48" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ48" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK48" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL48" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM48" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN48" s="188" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO48" s="264">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="BP48" s="266"/>
+      <c r="BQ48" s="264">
+        <v>0.84375</v>
+      </c>
+      <c r="BR48" s="257"/>
+      <c r="BS48" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="49" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ49" s="136"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
@@ -10747,21 +11236,37 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="206"/>
+      <c r="AQ49" s="211"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="207"/>
-      <c r="AV49" s="208"/>
+      <c r="AU49" s="212"/>
+      <c r="AV49" s="213"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
       <c r="AZ49" s="49"/>
+      <c r="BD49" s="136"/>
+      <c r="BE49" s="257"/>
+      <c r="BF49" s="258"/>
+      <c r="BG49" s="265"/>
+      <c r="BH49" s="260"/>
+      <c r="BI49" s="267"/>
+      <c r="BJ49" s="267"/>
+      <c r="BK49" s="268"/>
+      <c r="BL49" s="259"/>
+      <c r="BM49" s="262"/>
+      <c r="BN49" s="258"/>
+      <c r="BO49" s="269"/>
+      <c r="BP49" s="270"/>
+      <c r="BQ49" s="257"/>
+      <c r="BR49" s="257"/>
+      <c r="BS49" s="46"/>
     </row>
-    <row r="50" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="213" t="s">
+    <row r="50" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="214"/>
+      <c r="AK50" s="219"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -10772,17 +11277,38 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="206"/>
+      <c r="AQ50" s="211"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="207"/>
-      <c r="AV50" s="208"/>
+      <c r="AU50" s="212"/>
+      <c r="AV50" s="213"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
+      <c r="BD50" s="218" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE50" s="219"/>
+      <c r="BF50" s="189"/>
+      <c r="BG50" s="9">
+        <f>SUM(BD40:BF48)</f>
+        <v>310</v>
+      </c>
+      <c r="BH50" s="260"/>
+      <c r="BI50" s="267"/>
+      <c r="BJ50" s="267"/>
+      <c r="BK50" s="268"/>
+      <c r="BL50" s="259"/>
+      <c r="BM50" s="262"/>
+      <c r="BN50" s="258"/>
+      <c r="BO50" s="269"/>
+      <c r="BP50" s="270"/>
+      <c r="BQ50" s="257"/>
+      <c r="BR50" s="257"/>
+      <c r="BS50" s="46"/>
     </row>
-    <row r="51" spans="36:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ51" s="201"/>
       <c r="AK51" s="116"/>
       <c r="AL51" s="116"/>
@@ -10790,37 +11316,46 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="202"/>
       <c r="AP51" s="203"/>
-      <c r="AQ51" s="248"/>
+      <c r="AQ51" s="254"/>
       <c r="AR51" s="202"/>
       <c r="AS51" s="204"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="249"/>
-      <c r="AV51" s="250"/>
+      <c r="AU51" s="255"/>
+      <c r="AV51" s="256"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
       <c r="AZ51" s="51"/>
+      <c r="BD51" s="201"/>
+      <c r="BE51" s="115"/>
+      <c r="BF51" s="116"/>
+      <c r="BG51" s="50"/>
+      <c r="BH51" s="114"/>
+      <c r="BI51" s="202"/>
+      <c r="BJ51" s="203"/>
+      <c r="BK51" s="254"/>
+      <c r="BL51" s="202"/>
+      <c r="BM51" s="204"/>
+      <c r="BN51" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO51" s="255"/>
+      <c r="BP51" s="256"/>
+      <c r="BQ51" s="65"/>
+      <c r="BR51" s="65"/>
+      <c r="BS51" s="168"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
+  <mergeCells count="38">
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10836,6 +11371,22 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C591A4-BEDA-4892-98B2-66497E71188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E5CB6-965F-4594-8987-0DF343CA6B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1445,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1951,6 +1951,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1997,7 +2000,64 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2009,120 +2069,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2406,7 +2369,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,15 +2405,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="216">
+      <c r="C2" s="217">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2496,19 +2459,19 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="215" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="215"/>
+      <c r="A4" s="216"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2551,7 +2514,7 @@
         <v>0.84375</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,12 +2557,12 @@
         <v>0.84375</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="E6" s="166">
         <v>10</v>
@@ -2637,7 +2600,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2648,7 +2611,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="165"/>
-      <c r="F7" s="208"/>
+      <c r="F7" s="208">
+        <v>10</v>
+      </c>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
@@ -2675,7 +2640,7 @@
         <v>90</v>
       </c>
       <c r="P7" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>130</v>
@@ -2684,11 +2649,11 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="T7" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="220">
+      <c r="E8" s="221">
         <v>25</v>
       </c>
       <c r="F8" s="209"/>
@@ -2699,7 +2664,7 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="222" t="s">
+      <c r="J8" s="223" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="83" t="s">
@@ -2724,7 +2689,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2733,9 +2698,9 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8260</v>
-      </c>
-      <c r="E9" s="221"/>
+        <v>8350</v>
+      </c>
+      <c r="E9" s="222"/>
       <c r="F9" s="165"/>
       <c r="G9" s="191"/>
       <c r="H9" s="9" t="s">
@@ -2744,7 +2709,7 @@
       <c r="I9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="223"/>
+      <c r="J9" s="224"/>
       <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
@@ -2767,14 +2732,16 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="271">
+      <c r="E10" s="211">
         <v>10</v>
       </c>
-      <c r="F10" s="165"/>
+      <c r="F10" s="165">
+        <v>70</v>
+      </c>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
@@ -2801,7 +2768,7 @@
         <v>66</v>
       </c>
       <c r="P10" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.8125</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>126</v>
@@ -2819,9 +2786,9 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>90</v>
-      </c>
-      <c r="E11" s="271">
+        <v>0</v>
+      </c>
+      <c r="E11" s="211">
         <v>10</v>
       </c>
       <c r="F11" s="210"/>
@@ -2862,7 +2829,9 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="165"/>
-      <c r="F12" s="206"/>
+      <c r="F12" s="206">
+        <v>10</v>
+      </c>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
         <v>175</v>
@@ -2889,14 +2858,14 @@
         <v>181</v>
       </c>
       <c r="P12" s="154">
-        <v>0.78819444444444453</v>
+        <v>0.8125</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="154">
         <v>0.84375</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2905,32 +2874,32 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8170</v>
+        <v>8350</v>
       </c>
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
-      <c r="L13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="213"/>
+      <c r="L13" s="212"/>
+      <c r="P13" s="213"/>
+      <c r="Q13" s="214"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="219"/>
+      <c r="F14" s="220"/>
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
-      <c r="L14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="213"/>
+      <c r="L14" s="212"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="214"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2946,10 +2915,10 @@
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="197"/>
-      <c r="L15" s="211"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="119"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="214"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2968,8 +2937,8 @@
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="213"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="214"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2985,12 +2954,12 @@
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
-      <c r="L18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="213"/>
+      <c r="L18" s="212"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="214"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="211"/>
+      <c r="L19" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3013,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,18 +3009,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="244" t="s">
+      <c r="E1" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="245"/>
+      <c r="F1" s="229"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="244" t="s">
+      <c r="H1" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="246"/>
-      <c r="J1" s="245"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="229"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3096,26 +3065,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="247">
+      <c r="K2" s="234">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="249">
+      <c r="L2" s="236">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="234">
+      <c r="M2" s="238">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J45)</f>
-        <v>8130</v>
+        <f>SUM(E2:J47)</f>
+        <v>8310</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="233"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3130,13 +3099,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="239"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="232"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3151,9 +3120,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3235,7 +3204,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="236">
+      <c r="B7" s="240">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3252,22 +3221,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="238">
+      <c r="K7" s="242">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="240">
+      <c r="L7" s="244">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="242">
+      <c r="M7" s="246">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="237"/>
+      <c r="B8" s="241"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3288,9 +3257,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="239"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="247"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3370,7 +3339,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="236">
+      <c r="B11" s="240">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3397,7 +3366,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="237"/>
+      <c r="B12" s="241"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3454,7 +3423,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="236">
+      <c r="B14" s="240">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3477,7 +3446,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="237"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3532,7 +3501,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="233"/>
+      <c r="B17" s="232"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3579,7 +3548,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="232"/>
+      <c r="B19" s="233"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3639,7 +3608,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="229">
+      <c r="B21" s="249">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3667,7 +3636,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="230"/>
+      <c r="B22" s="250"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3719,7 +3688,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="216">
+      <c r="B24" s="217">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3748,7 +3717,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="217"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3776,7 +3745,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="216">
+      <c r="B26" s="217">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3807,7 +3776,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="228"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3838,7 +3807,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="216">
+      <c r="B28" s="217">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3860,7 +3829,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="217"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3886,7 +3855,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="216">
+      <c r="B30" s="217">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3909,7 +3878,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="217"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3936,7 +3905,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="216">
+      <c r="B32" s="217">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3958,7 +3927,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="217"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4011,7 +3980,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="216">
+      <c r="B35" s="217">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4038,7 +4007,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="217"/>
+      <c r="B36" s="218"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4060,7 +4029,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="216">
+      <c r="B37" s="217">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4093,7 +4062,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="217"/>
+      <c r="B38" s="218"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4111,7 +4080,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="216">
+      <c r="B39" s="217">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4138,7 +4107,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="228"/>
+      <c r="B40" s="248"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4166,7 +4135,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="216">
+      <c r="B41" s="217">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4193,7 +4162,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="228"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4211,7 +4180,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="217"/>
+      <c r="B43" s="218"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4240,7 +4209,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="216">
+      <c r="B44" s="217">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4266,8 +4235,8 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="227"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="218"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -4291,34 +4260,59 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="130">
+      <c r="B46" s="217">
         <v>27</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="142"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="272">
+      <c r="F46" s="18">
         <v>50</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="272">
+      <c r="I46" s="18">
         <v>20</v>
       </c>
-      <c r="J46" s="272">
+      <c r="J46" s="18">
         <v>20</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="218"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="257">
+        <v>70</v>
+      </c>
+      <c r="H47" s="159"/>
+      <c r="I47" s="257">
+        <v>20</v>
+      </c>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="159"/>
+      <c r="M47" s="159"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="26">
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4328,17 +4322,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7545,10 +7533,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="218" t="s">
+      <c r="AG24" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="219"/>
+      <c r="AH24" s="220"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7568,10 +7556,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="218" t="s">
+      <c r="AZ24" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="219"/>
+      <c r="BA24" s="220"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7591,10 +7579,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="218" t="s">
+      <c r="BR24" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="219"/>
+      <c r="BS24" s="220"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7617,10 +7605,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="226"/>
+      <c r="C26" s="227"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7657,10 +7645,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="224" t="s">
+      <c r="R26" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="226"/>
+      <c r="S26" s="227"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7697,10 +7685,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="224" t="s">
+      <c r="AG26" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="226"/>
+      <c r="AH26" s="227"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7737,10 +7725,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="224" t="s">
+      <c r="AW26" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="226"/>
+      <c r="AX26" s="227"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7777,10 +7765,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="224" t="s">
+      <c r="BM26" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="226"/>
+      <c r="BN26" s="227"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8774,7 +8762,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="251">
+      <c r="AX32" s="254">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8812,7 +8800,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="251">
+      <c r="BN32" s="254">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8961,7 +8949,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="252"/>
+      <c r="AX33" s="255"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8997,7 +8985,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="252"/>
+      <c r="BN33" s="255"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9148,7 +9136,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="253"/>
+      <c r="AX34" s="256"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9186,7 +9174,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="253"/>
+      <c r="BN34" s="256"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9417,10 +9405,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="218" t="s">
+      <c r="B36" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="219"/>
+      <c r="C36" s="220"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9438,10 +9426,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="218" t="s">
+      <c r="R36" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="219"/>
+      <c r="S36" s="220"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9459,10 +9447,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="218" t="s">
+      <c r="AG36" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="219"/>
+      <c r="AH36" s="220"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9480,10 +9468,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="218" t="s">
+      <c r="AW36" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="219"/>
+      <c r="AX36" s="220"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9501,10 +9489,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="218" t="s">
+      <c r="BM36" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="219"/>
+      <c r="BN36" s="220"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9524,10 +9512,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="224" t="s">
+      <c r="B38" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="226"/>
+      <c r="C38" s="227"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9567,10 +9555,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="224" t="s">
+      <c r="S38" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="226"/>
+      <c r="T38" s="227"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9610,11 +9598,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="224" t="s">
+      <c r="AJ38" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="225"/>
-      <c r="AL38" s="226"/>
+      <c r="AK38" s="226"/>
+      <c r="AL38" s="227"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9659,11 +9647,11 @@
         <f ca="1">TODAY()</f>
         <v>45287</v>
       </c>
-      <c r="BD38" s="224" t="s">
+      <c r="BD38" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="225"/>
-      <c r="BF38" s="226"/>
+      <c r="BE38" s="226"/>
+      <c r="BF38" s="227"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9745,20 +9733,17 @@
       <c r="AY39" s="24"/>
       <c r="AZ39" s="49"/>
       <c r="BD39" s="136"/>
-      <c r="BE39" s="257"/>
-      <c r="BF39" s="258"/>
-      <c r="BG39" s="259"/>
-      <c r="BH39" s="260"/>
-      <c r="BI39" s="261"/>
-      <c r="BJ39" s="261"/>
-      <c r="BK39" s="259"/>
-      <c r="BL39" s="259"/>
-      <c r="BM39" s="262"/>
-      <c r="BN39" s="258"/>
-      <c r="BO39" s="263"/>
-      <c r="BP39" s="257"/>
-      <c r="BQ39" s="257"/>
-      <c r="BR39" s="257"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="2"/>
+      <c r="BH39" s="25"/>
+      <c r="BI39" s="117"/>
+      <c r="BJ39" s="117"/>
+      <c r="BM39" s="192"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="152"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
       <c r="BS39" s="46"/>
     </row>
     <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9920,14 +9905,14 @@
       <c r="BN40" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BO40" s="264">
+      <c r="BO40" s="154">
         <v>0.78819444444444453</v>
       </c>
-      <c r="BP40" s="257"/>
-      <c r="BQ40" s="264">
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="154">
         <v>0.84375</v>
       </c>
-      <c r="BR40" s="257"/>
+      <c r="BR40" s="1"/>
       <c r="BS40" s="46" t="s">
         <v>180</v>
       </c>
@@ -10089,14 +10074,14 @@
       <c r="BN41" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="BO41" s="264">
+      <c r="BO41" s="154">
         <v>0.4375</v>
       </c>
-      <c r="BP41" s="257"/>
-      <c r="BQ41" s="264">
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="154">
         <v>0.84375</v>
       </c>
-      <c r="BR41" s="257"/>
+      <c r="BR41" s="1"/>
       <c r="BS41" s="46" t="s">
         <v>168</v>
       </c>
@@ -10230,7 +10215,7 @@
       </c>
       <c r="BE42" s="208"/>
       <c r="BF42" s="127"/>
-      <c r="BG42" s="265" t="s">
+      <c r="BG42" s="28" t="s">
         <v>147</v>
       </c>
       <c r="BH42" s="120" t="s">
@@ -10254,14 +10239,14 @@
       <c r="BN42" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="BO42" s="264">
+      <c r="BO42" s="154">
         <v>0.4375</v>
       </c>
-      <c r="BP42" s="257"/>
-      <c r="BQ42" s="264">
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="BR42" s="257"/>
+      <c r="BR42" s="1"/>
       <c r="BS42" s="46" t="s">
         <v>168</v>
       </c>
@@ -10427,23 +10412,23 @@
       <c r="BN43" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="BO43" s="264">
+      <c r="BO43" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BP43" s="257" t="s">
+      <c r="BP43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BQ43" s="264">
+      <c r="BQ43" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="BR43" s="257"/>
+      <c r="BR43" s="1"/>
       <c r="BS43" s="46" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="251">
+      <c r="C44" s="254">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10481,10 +10466,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="220">
+      <c r="S44" s="221">
         <v>25</v>
       </c>
-      <c r="T44" s="251">
+      <c r="T44" s="254">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10493,7 +10478,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="222" t="s">
+      <c r="W44" s="223" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10522,10 +10507,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="220">
+      <c r="AJ44" s="221">
         <v>50</v>
       </c>
-      <c r="AK44" s="251">
+      <c r="AK44" s="254">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10535,7 +10520,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="222" t="s">
+      <c r="AO44" s="223" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10565,7 +10550,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="220">
+      <c r="BD44" s="221">
         <v>50</v>
       </c>
       <c r="BE44" s="209"/>
@@ -10576,7 +10561,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="222" t="s">
+      <c r="BI44" s="223" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -10594,21 +10579,21 @@
       <c r="BN44" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BO44" s="264">
+      <c r="BO44" s="154">
         <v>0.4375</v>
       </c>
-      <c r="BP44" s="257"/>
-      <c r="BQ44" s="264">
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="BR44" s="257"/>
+      <c r="BR44" s="1"/>
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="252"/>
+      <c r="C45" s="255"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10642,15 +10627,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="221"/>
-      <c r="T45" s="253"/>
+      <c r="S45" s="222"/>
+      <c r="T45" s="256"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="223"/>
+      <c r="W45" s="224"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10677,8 +10662,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="221"/>
-      <c r="AK45" s="253"/>
+      <c r="AJ45" s="222"/>
+      <c r="AK45" s="256"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -10686,7 +10671,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="223"/>
+      <c r="AO45" s="224"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10714,7 +10699,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="221"/>
+      <c r="BD45" s="222"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -10725,7 +10710,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="223"/>
+      <c r="BI45" s="224"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10741,21 +10726,21 @@
       <c r="BN45" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="BO45" s="264">
+      <c r="BO45" s="154">
         <v>0.78819444444444453</v>
       </c>
-      <c r="BP45" s="257"/>
-      <c r="BQ45" s="264">
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="BR45" s="257"/>
+      <c r="BR45" s="1"/>
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="253"/>
+      <c r="C46" s="256"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -10912,16 +10897,16 @@
       <c r="BN46" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="BO46" s="264">
+      <c r="BO46" s="154">
         <v>0.78819444444444453</v>
       </c>
-      <c r="BP46" s="257" t="s">
+      <c r="BP46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BQ46" s="264">
+      <c r="BQ46" s="154">
         <v>0.84375</v>
       </c>
-      <c r="BR46" s="257"/>
+      <c r="BR46" s="1"/>
       <c r="BS46" s="46" t="s">
         <v>168</v>
       </c>
@@ -11085,23 +11070,23 @@
       <c r="BN47" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="BO47" s="264">
+      <c r="BO47" s="154">
         <v>0.78819444444444453</v>
       </c>
-      <c r="BP47" s="257"/>
-      <c r="BQ47" s="264">
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="154">
         <v>0.84375</v>
       </c>
-      <c r="BR47" s="257"/>
+      <c r="BR47" s="1"/>
       <c r="BS47" s="46" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="218" t="s">
+      <c r="B48" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="219"/>
+      <c r="C48" s="220"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11120,10 +11105,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="218" t="s">
+      <c r="S48" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="219"/>
+      <c r="T48" s="220"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11216,14 +11201,14 @@
       <c r="BN48" s="188" t="s">
         <v>181</v>
       </c>
-      <c r="BO48" s="264">
+      <c r="BO48" s="154">
         <v>0.78819444444444453</v>
       </c>
-      <c r="BP48" s="266"/>
-      <c r="BQ48" s="264">
+      <c r="BP48" s="24"/>
+      <c r="BQ48" s="154">
         <v>0.84375</v>
       </c>
-      <c r="BR48" s="257"/>
+      <c r="BR48" s="1"/>
       <c r="BS48" s="46" t="s">
         <v>168</v>
       </c>
@@ -11236,37 +11221,36 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="211"/>
+      <c r="AQ49" s="212"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="212"/>
-      <c r="AV49" s="213"/>
+      <c r="AU49" s="213"/>
+      <c r="AV49" s="214"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
       <c r="AZ49" s="49"/>
       <c r="BD49" s="136"/>
-      <c r="BE49" s="257"/>
-      <c r="BF49" s="258"/>
-      <c r="BG49" s="265"/>
-      <c r="BH49" s="260"/>
-      <c r="BI49" s="267"/>
-      <c r="BJ49" s="267"/>
-      <c r="BK49" s="268"/>
-      <c r="BL49" s="259"/>
-      <c r="BM49" s="262"/>
-      <c r="BN49" s="258"/>
-      <c r="BO49" s="269"/>
-      <c r="BP49" s="270"/>
-      <c r="BQ49" s="257"/>
-      <c r="BR49" s="257"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="28"/>
+      <c r="BH49" s="25"/>
+      <c r="BI49" s="119"/>
+      <c r="BJ49" s="119"/>
+      <c r="BK49" s="212"/>
+      <c r="BM49" s="192"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="213"/>
+      <c r="BP49" s="214"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
     </row>
     <row r="50" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="218" t="s">
+      <c r="AJ50" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="219"/>
+      <c r="AK50" s="220"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11277,35 +11261,34 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="211"/>
+      <c r="AQ50" s="212"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="212"/>
-      <c r="AV50" s="213"/>
+      <c r="AU50" s="213"/>
+      <c r="AV50" s="214"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="218" t="s">
+      <c r="BD50" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="219"/>
+      <c r="BE50" s="220"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
         <v>310</v>
       </c>
-      <c r="BH50" s="260"/>
-      <c r="BI50" s="267"/>
-      <c r="BJ50" s="267"/>
-      <c r="BK50" s="268"/>
-      <c r="BL50" s="259"/>
-      <c r="BM50" s="262"/>
-      <c r="BN50" s="258"/>
-      <c r="BO50" s="269"/>
-      <c r="BP50" s="270"/>
-      <c r="BQ50" s="257"/>
-      <c r="BR50" s="257"/>
+      <c r="BH50" s="25"/>
+      <c r="BI50" s="119"/>
+      <c r="BJ50" s="119"/>
+      <c r="BK50" s="212"/>
+      <c r="BM50" s="192"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="213"/>
+      <c r="BP50" s="214"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
     </row>
     <row r="51" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11316,14 +11299,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="202"/>
       <c r="AP51" s="203"/>
-      <c r="AQ51" s="254"/>
+      <c r="AQ51" s="252"/>
       <c r="AR51" s="202"/>
       <c r="AS51" s="204"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="255"/>
-      <c r="AV51" s="256"/>
+      <c r="AU51" s="253"/>
+      <c r="AV51" s="251"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -11335,27 +11318,36 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="202"/>
       <c r="BJ51" s="203"/>
-      <c r="BK51" s="254"/>
+      <c r="BK51" s="252"/>
       <c r="BL51" s="202"/>
       <c r="BM51" s="204"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="255"/>
-      <c r="BP51" s="256"/>
+      <c r="BO51" s="253"/>
+      <c r="BP51" s="251"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BP49:BP51"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BD44:BD45"/>
-    <mergeCell ref="BI44:BI45"/>
-    <mergeCell ref="BK49:BK51"/>
-    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -11371,22 +11363,13 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E5CB6-965F-4594-8987-0DF343CA6B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A8488-CD40-4D57-8CBC-AEFF7B516C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="186">
   <si>
     <t>UnSettled</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>WL F Police</t>
   </si>
 </sst>
 </file>
@@ -1954,6 +1960,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2030,6 +2037,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2061,12 +2074,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2085,7 +2092,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2369,7 +2375,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,15 +2411,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="217">
+      <c r="C2" s="218">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="225" t="s">
+      <c r="E2" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="226"/>
-      <c r="G2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2455,23 +2461,23 @@
       </c>
       <c r="V2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="216" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="219"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="216"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="140">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F4" s="206"/>
       <c r="G4" s="164"/>
@@ -2508,13 +2514,13 @@
         <v>30</v>
       </c>
       <c r="P4" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.4375</v>
       </c>
       <c r="R4" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2522,7 +2528,7 @@
         <v>-2</v>
       </c>
       <c r="E5" s="205">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="207"/>
       <c r="G5" s="126"/>
@@ -2551,22 +2557,20 @@
         <v>86</v>
       </c>
       <c r="P5" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.4375</v>
       </c>
       <c r="R5" s="154">
-        <v>0.84375</v>
+        <v>0.4375</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1350</v>
-      </c>
-      <c r="E6" s="166">
-        <v>10</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="E6" s="166"/>
       <c r="F6" s="208"/>
       <c r="G6" s="127"/>
       <c r="H6" s="28" t="s">
@@ -2611,9 +2615,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="165"/>
-      <c r="F7" s="208">
-        <v>10</v>
-      </c>
+      <c r="F7" s="208"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
@@ -2653,9 +2655,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="221">
-        <v>25</v>
-      </c>
+      <c r="E8" s="222"/>
       <c r="F8" s="209"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
@@ -2664,7 +2664,7 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="223" t="s">
+      <c r="J8" s="224" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="83" t="s">
@@ -2698,9 +2698,9 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8350</v>
-      </c>
-      <c r="E9" s="222"/>
+        <v>8380</v>
+      </c>
+      <c r="E9" s="223"/>
       <c r="F9" s="165"/>
       <c r="G9" s="191"/>
       <c r="H9" s="9" t="s">
@@ -2709,7 +2709,7 @@
       <c r="I9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="224"/>
+      <c r="J9" s="225"/>
       <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
@@ -2736,12 +2736,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="211">
-        <v>10</v>
-      </c>
-      <c r="F10" s="165">
-        <v>70</v>
-      </c>
+      <c r="E10" s="211"/>
+      <c r="F10" s="165"/>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
@@ -2788,9 +2784,7 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="211">
-        <v>10</v>
-      </c>
+      <c r="E11" s="211"/>
       <c r="F11" s="210"/>
       <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
@@ -2800,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="183" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K11" s="185" t="s">
         <v>176</v>
@@ -2829,9 +2823,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="165"/>
-      <c r="F12" s="206">
-        <v>10</v>
-      </c>
+      <c r="F12" s="206"/>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
         <v>175</v>
@@ -2874,32 +2866,32 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8350</v>
+        <v>8380</v>
       </c>
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
-      <c r="L13" s="212"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="214"/>
+      <c r="L13" s="213"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="215"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="220"/>
+      <c r="F14" s="221"/>
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
-      <c r="L14" s="212"/>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="214"/>
+      <c r="L14" s="213"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="215"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2915,10 +2907,10 @@
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="197"/>
-      <c r="L15" s="212"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="119"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="215"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2937,8 +2929,8 @@
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="214"/>
+      <c r="P17" s="214"/>
+      <c r="Q17" s="215"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2954,12 +2946,12 @@
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
-      <c r="L18" s="212"/>
-      <c r="P18" s="213"/>
-      <c r="Q18" s="214"/>
+      <c r="L18" s="213"/>
+      <c r="P18" s="214"/>
+      <c r="Q18" s="215"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="212"/>
+      <c r="L19" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2982,7 +2974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -3009,18 +3001,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="229"/>
+      <c r="F1" s="230"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="228" t="s">
+      <c r="H1" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="230"/>
-      <c r="J1" s="229"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="230"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3030,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231">
+      <c r="B2" s="232">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3065,26 +3057,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="234">
+      <c r="K2" s="235">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="236">
+      <c r="L2" s="237">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="238">
+      <c r="M2" s="241">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J47)</f>
-        <v>8310</v>
+        <f>SUM(E2:J48)</f>
+        <v>8340</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="232"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3099,13 +3091,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="239"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="233"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3120,9 +3112,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="239"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="242"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3204,7 +3196,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="240">
+      <c r="B7" s="243">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3221,22 +3213,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="242">
+      <c r="K7" s="245">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="244">
+      <c r="L7" s="247">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="246">
+      <c r="M7" s="249">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="241"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3257,9 +3249,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="243"/>
-      <c r="L8" s="245"/>
-      <c r="M8" s="247"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="250"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3339,7 +3331,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="243">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3366,7 +3358,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="241"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3423,7 +3415,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="240">
+      <c r="B14" s="243">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3446,7 +3438,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="241"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3470,7 +3462,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="231">
+      <c r="B16" s="232">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3501,7 +3493,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="232"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3519,7 +3511,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="231">
+      <c r="B18" s="232">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3548,7 +3540,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="233"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3608,7 +3600,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="249">
+      <c r="B21" s="239">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3636,7 +3628,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="250"/>
+      <c r="B22" s="240"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3688,7 +3680,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="217">
+      <c r="B24" s="218">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3717,7 +3709,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="218"/>
+      <c r="B25" s="219"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3745,7 +3737,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="217">
+      <c r="B26" s="218">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3776,7 +3768,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="248"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3807,7 +3799,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="217">
+      <c r="B28" s="218">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3829,7 +3821,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="218"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3855,7 +3847,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="217">
+      <c r="B30" s="218">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3878,7 +3870,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3905,7 +3897,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="217">
+      <c r="B32" s="218">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3927,7 +3919,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="218"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3980,7 +3972,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="217">
+      <c r="B35" s="218">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4007,7 +3999,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="218"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4029,7 +4021,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="217">
+      <c r="B37" s="218">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4062,7 +4054,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="218"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4080,7 +4072,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="217">
+      <c r="B39" s="218">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4107,7 +4099,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="248"/>
+      <c r="B40" s="251"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4135,7 +4127,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="217">
+      <c r="B41" s="218">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4162,7 +4154,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="248"/>
+      <c r="B42" s="251"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4180,7 +4172,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="218"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4209,7 +4201,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="217">
+      <c r="B44" s="218">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4235,7 +4227,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="218"/>
+      <c r="B45" s="219"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4260,7 +4252,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="217">
+      <c r="B46" s="218">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4282,22 +4274,43 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="218"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="159"/>
-      <c r="G47" s="257">
+      <c r="B47" s="251"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132">
         <v>70</v>
       </c>
-      <c r="H47" s="159"/>
-      <c r="I47" s="257">
+      <c r="H47" s="132"/>
+      <c r="I47" s="132">
         <v>20</v>
       </c>
-      <c r="J47" s="159"/>
-      <c r="K47" s="159"/>
-      <c r="L47" s="159"/>
-      <c r="M47" s="159"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="34">
+        <v>28</v>
+      </c>
+      <c r="C48" s="142"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18">
+        <v>30</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4334,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:CG51"/>
+  <dimension ref="A1:CL51"/>
   <sheetViews>
-    <sheetView topLeftCell="BB34" workbookViewId="0">
-      <selection activeCell="BN53" sqref="BN53"/>
+    <sheetView topLeftCell="BT34" workbookViewId="0">
+      <selection activeCell="CH53" sqref="CH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5887,7 +5900,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5932,7 +5945,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5977,7 +5990,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="BR14" s="158" t="s">
         <v>44</v>
@@ -6022,7 +6035,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7533,10 +7546,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="219" t="s">
+      <c r="AG24" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="220"/>
+      <c r="AH24" s="221"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7556,10 +7569,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="219" t="s">
+      <c r="AZ24" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="220"/>
+      <c r="BA24" s="221"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7579,10 +7592,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="219" t="s">
+      <c r="BR24" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="220"/>
+      <c r="BS24" s="221"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7605,10 +7618,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="225" t="s">
+      <c r="B26" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="227"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7645,10 +7658,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="225" t="s">
+      <c r="R26" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="227"/>
+      <c r="S26" s="228"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7685,10 +7698,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="225" t="s">
+      <c r="AG26" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="227"/>
+      <c r="AH26" s="228"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7725,10 +7738,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="225" t="s">
+      <c r="AW26" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="227"/>
+      <c r="AX26" s="228"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7765,10 +7778,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="225" t="s">
+      <c r="BM26" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="227"/>
+      <c r="BN26" s="228"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8762,7 +8775,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="254">
+      <c r="AX32" s="255">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8800,7 +8813,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="254">
+      <c r="BN32" s="255">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8839,7 +8852,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="33"/>
       <c r="C33" s="126">
         <v>25</v>
@@ -8949,7 +8962,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="255"/>
+      <c r="AX33" s="256"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8985,7 +8998,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="255"/>
+      <c r="BN33" s="256"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9020,7 +9033,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33"/>
       <c r="C34" s="37">
         <v>12</v>
@@ -9136,7 +9149,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="256"/>
+      <c r="AX34" s="257"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9174,7 +9187,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="256"/>
+      <c r="BN34" s="257"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="140">
         <v>100</v>
       </c>
@@ -9404,11 +9417,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="219" t="s">
+    <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9426,10 +9439,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="219" t="s">
+      <c r="R36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="220"/>
+      <c r="S36" s="221"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9447,10 +9460,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="219" t="s">
+      <c r="AG36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="220"/>
+      <c r="AH36" s="221"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9468,10 +9481,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="219" t="s">
+      <c r="AW36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="220"/>
+      <c r="AX36" s="221"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9489,10 +9502,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="219" t="s">
+      <c r="BM36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="220"/>
+      <c r="BN36" s="221"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9510,12 +9523,12 @@
       <c r="BZ36" s="65"/>
       <c r="CA36" s="168"/>
     </row>
-    <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="225" t="s">
+    <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="227"/>
+      <c r="C38" s="228"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9555,10 +9568,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="225" t="s">
+      <c r="S38" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="227"/>
+      <c r="T38" s="228"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9598,11 +9611,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="225" t="s">
+      <c r="AJ38" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="226"/>
-      <c r="AL38" s="227"/>
+      <c r="AK38" s="227"/>
+      <c r="AL38" s="228"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9645,13 +9658,13 @@
       <c r="AZ38" s="44"/>
       <c r="BA38" s="200">
         <f ca="1">TODAY()</f>
-        <v>45287</v>
-      </c>
-      <c r="BD38" s="225" t="s">
+        <v>45288</v>
+      </c>
+      <c r="BD38" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="226"/>
-      <c r="BF38" s="227"/>
+      <c r="BE38" s="227"/>
+      <c r="BF38" s="228"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9691,8 +9704,52 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
+      <c r="BW38" s="226" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX38" s="227"/>
+      <c r="BY38" s="228"/>
+      <c r="BZ38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB38" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC38" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="CF38" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG38" s="171" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH38" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="CI38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ38" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK38" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL38" s="36" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="136"/>
       <c r="C39" s="2"/>
       <c r="E39" s="25"/>
@@ -9745,8 +9802,21 @@
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
       <c r="BS39" s="46"/>
+      <c r="BW39" s="136"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="2"/>
+      <c r="CA39" s="25"/>
+      <c r="CB39" s="117"/>
+      <c r="CC39" s="117"/>
+      <c r="CF39" s="192"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="152"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="46"/>
     </row>
-    <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="140">
         <v>10</v>
       </c>
@@ -9916,8 +9986,48 @@
       <c r="BS40" s="46" t="s">
         <v>180</v>
       </c>
+      <c r="BW40" s="140">
+        <v>25</v>
+      </c>
+      <c r="BX40" s="206"/>
+      <c r="BY40" s="164"/>
+      <c r="BZ40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB40" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC40" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD40" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE40" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF40" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG40" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH40" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="166">
         <v>10</v>
       </c>
@@ -10085,8 +10195,48 @@
       <c r="BS41" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW41" s="205">
+        <v>10</v>
+      </c>
+      <c r="BX41" s="207"/>
+      <c r="BY41" s="126"/>
+      <c r="BZ41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA41" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB41" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC41" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD41" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE41" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF41" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="CG41" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH41" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="166">
         <v>10</v>
       </c>
@@ -10250,8 +10400,48 @@
       <c r="BS42" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW42" s="166">
+        <v>10</v>
+      </c>
+      <c r="BX42" s="208"/>
+      <c r="BY42" s="127"/>
+      <c r="BZ42" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB42" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="CC42" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD42" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF42" s="194" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG42" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="CH42" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="43" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="140">
         <v>15</v>
       </c>
@@ -10425,10 +10615,52 @@
       <c r="BS43" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW43" s="165"/>
+      <c r="BX43" s="208">
+        <v>10</v>
+      </c>
+      <c r="BY43" s="127"/>
+      <c r="BZ43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA43" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB43" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC43" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="CD43" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE43" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF43" s="194" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG43" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH43" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="CI43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CJ43" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="254">
+      <c r="C44" s="255">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10466,10 +10698,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="221">
+      <c r="S44" s="222">
         <v>25</v>
       </c>
-      <c r="T44" s="254">
+      <c r="T44" s="255">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10478,7 +10710,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="223" t="s">
+      <c r="W44" s="224" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10507,10 +10739,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="221">
+      <c r="AJ44" s="222">
         <v>50</v>
       </c>
-      <c r="AK44" s="254">
+      <c r="AK44" s="255">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10520,7 +10752,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="223" t="s">
+      <c r="AO44" s="224" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10550,7 +10782,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="221">
+      <c r="BD44" s="222">
         <v>50</v>
       </c>
       <c r="BE44" s="209"/>
@@ -10561,7 +10793,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="223" t="s">
+      <c r="BI44" s="224" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -10590,10 +10822,50 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
+      <c r="BW44" s="222">
+        <v>25</v>
+      </c>
+      <c r="BX44" s="209"/>
+      <c r="BY44" s="190"/>
+      <c r="BZ44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="CA44" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB44" s="224" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC44" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CE44" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF44" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG44" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH44" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="255"/>
+      <c r="C45" s="256"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10627,15 +10899,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="222"/>
-      <c r="T45" s="256"/>
+      <c r="S45" s="223"/>
+      <c r="T45" s="257"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="224"/>
+      <c r="W45" s="225"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10662,8 +10934,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="222"/>
-      <c r="AK45" s="256"/>
+      <c r="AJ45" s="223"/>
+      <c r="AK45" s="257"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -10671,7 +10943,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="224"/>
+      <c r="AO45" s="225"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10699,7 +10971,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="222"/>
+      <c r="BD45" s="223"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -10710,7 +10982,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="224"/>
+      <c r="BI45" s="225"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10737,10 +11009,46 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
+      <c r="BW45" s="223"/>
+      <c r="BX45" s="165"/>
+      <c r="BY45" s="191"/>
+      <c r="BZ45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA45" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB45" s="225"/>
+      <c r="CC45" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD45" s="180" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE45" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF45" s="194" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG45" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="CH45" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="154">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="256"/>
+      <c r="C46" s="257"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -10910,8 +11218,52 @@
       <c r="BS46" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW46" s="211">
+        <v>10</v>
+      </c>
+      <c r="BX46" s="165">
+        <v>70</v>
+      </c>
+      <c r="BY46" s="177"/>
+      <c r="BZ46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB46" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC46" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE46" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF46" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH46" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="CI46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ46" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="47" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="140">
         <v>10</v>
       </c>
@@ -11081,12 +11433,52 @@
       <c r="BS47" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW47" s="211">
+        <v>10</v>
+      </c>
+      <c r="BX47" s="210"/>
+      <c r="BY47" s="184"/>
+      <c r="BZ47" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA47" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB47" s="183" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC47" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD47" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="CE47" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF47" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG47" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH47" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="219" t="s">
+    <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="220"/>
+      <c r="C48" s="221"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11105,10 +11497,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="219" t="s">
+      <c r="S48" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="220"/>
+      <c r="T48" s="221"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11212,8 +11604,48 @@
       <c r="BS48" s="46" t="s">
         <v>168</v>
       </c>
+      <c r="BW48" s="165"/>
+      <c r="BX48" s="206">
+        <v>10</v>
+      </c>
+      <c r="BY48" s="164"/>
+      <c r="BZ48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA48" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB48" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC48" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD48" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="CE48" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF48" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG48" s="188" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH48" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="CI48" s="24"/>
+      <c r="CJ48" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="49" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ49" s="136"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
@@ -11221,11 +11653,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="212"/>
+      <c r="AQ49" s="213"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="213"/>
-      <c r="AV49" s="214"/>
+      <c r="AU49" s="214"/>
+      <c r="AV49" s="215"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11237,20 +11669,35 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="212"/>
+      <c r="BK49" s="213"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="213"/>
-      <c r="BP49" s="214"/>
+      <c r="BO49" s="214"/>
+      <c r="BP49" s="215"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
+      <c r="BW49" s="136"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="2"/>
+      <c r="BZ49" s="28"/>
+      <c r="CA49" s="25"/>
+      <c r="CB49" s="119"/>
+      <c r="CC49" s="119"/>
+      <c r="CD49" s="213"/>
+      <c r="CF49" s="192"/>
+      <c r="CG49" s="2"/>
+      <c r="CH49" s="214"/>
+      <c r="CI49" s="215"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="46"/>
     </row>
-    <row r="50" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="219" t="s">
+    <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="220"/>
+      <c r="AK50" s="221"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11261,19 +11708,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="212"/>
+      <c r="AQ50" s="213"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="213"/>
-      <c r="AV50" s="214"/>
+      <c r="AU50" s="214"/>
+      <c r="AV50" s="215"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="219" t="s">
+      <c r="BD50" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="220"/>
+      <c r="BE50" s="221"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -11282,16 +11729,36 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="212"/>
+      <c r="BK50" s="213"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="213"/>
-      <c r="BP50" s="214"/>
+      <c r="BO50" s="214"/>
+      <c r="BP50" s="215"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
+      <c r="BW50" s="220" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX50" s="221"/>
+      <c r="BY50" s="189"/>
+      <c r="BZ50" s="9">
+        <f>SUM(BW40:BY48)</f>
+        <v>180</v>
+      </c>
+      <c r="CA50" s="25"/>
+      <c r="CB50" s="119"/>
+      <c r="CC50" s="119"/>
+      <c r="CD50" s="213"/>
+      <c r="CF50" s="192"/>
+      <c r="CG50" s="2"/>
+      <c r="CH50" s="214"/>
+      <c r="CI50" s="215"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="46"/>
     </row>
-    <row r="51" spans="36:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ51" s="201"/>
       <c r="AK51" s="116"/>
       <c r="AL51" s="116"/>
@@ -11299,14 +11766,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="202"/>
       <c r="AP51" s="203"/>
-      <c r="AQ51" s="252"/>
+      <c r="AQ51" s="253"/>
       <c r="AR51" s="202"/>
       <c r="AS51" s="204"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="253"/>
-      <c r="AV51" s="251"/>
+      <c r="AU51" s="254"/>
+      <c r="AV51" s="252"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -11318,20 +11785,38 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="202"/>
       <c r="BJ51" s="203"/>
-      <c r="BK51" s="252"/>
+      <c r="BK51" s="253"/>
       <c r="BL51" s="202"/>
       <c r="BM51" s="204"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="253"/>
-      <c r="BP51" s="251"/>
+      <c r="BO51" s="254"/>
+      <c r="BP51" s="252"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
+      <c r="BW51" s="201"/>
+      <c r="BX51" s="115"/>
+      <c r="BY51" s="116"/>
+      <c r="BZ51" s="50"/>
+      <c r="CA51" s="114"/>
+      <c r="CB51" s="202"/>
+      <c r="CC51" s="203"/>
+      <c r="CD51" s="253"/>
+      <c r="CE51" s="202"/>
+      <c r="CF51" s="204" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG51" s="79"/>
+      <c r="CH51" s="254"/>
+      <c r="CI51" s="252"/>
+      <c r="CJ51" s="65"/>
+      <c r="CK51" s="65"/>
+      <c r="CL51" s="168"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="45">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B48:C48"/>
@@ -11370,6 +11855,13 @@
     <mergeCell ref="BI44:BI45"/>
     <mergeCell ref="BK49:BK51"/>
     <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="CI49:CI51"/>
+    <mergeCell ref="BW50:BX50"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="BW44:BW45"/>
+    <mergeCell ref="CB44:CB45"/>
+    <mergeCell ref="CD49:CD51"/>
+    <mergeCell ref="CH49:CH51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.5.xlsx
+++ b/Usage_S_1.0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A8488-CD40-4D57-8CBC-AEFF7B516C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6317BB-591C-4433-8424-13B5D12103FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="189">
   <si>
     <t>UnSettled</t>
   </si>
@@ -593,7 +593,16 @@
     <t>29/12/2023</t>
   </si>
   <si>
-    <t>WL F Police</t>
+    <t>Rw - Ganjam</t>
+  </si>
+  <si>
+    <t>SS Mx</t>
+  </si>
+  <si>
+    <t>ABP Bangla</t>
+  </si>
+  <si>
+    <t>X-Professional - (52) -X</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +837,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1451,7 +1466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,6 +1976,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2090,6 +2108,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,6 +2131,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF385E3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2375,7 +2413,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,16 +2421,16 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="192" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="152" customWidth="1"/>
     <col min="17" max="17" width="4.85546875" style="1" customWidth="1"/>
@@ -2411,15 +2449,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="218">
+      <c r="C2" s="219">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="226" t="s">
+      <c r="E2" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="229"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2432,13 +2470,13 @@
       <c r="K2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="33" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="193" t="s">
+      <c r="N2" s="171" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="171" t="s">
@@ -2465,26 +2503,26 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="217"/>
+      <c r="A4" s="218"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="259">
         <v>10</v>
       </c>
       <c r="F4" s="206"/>
@@ -2496,18 +2534,18 @@
         <v>17</v>
       </c>
       <c r="J4" s="169" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="170" t="s">
         <v>156</v>
       </c>
       <c r="M4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="180" t="s">
+      <c r="N4" s="176" t="s">
         <v>156</v>
       </c>
       <c r="O4" s="37" t="s">
@@ -2533,24 +2571,24 @@
       <c r="F5" s="207"/>
       <c r="G5" s="126"/>
       <c r="H5" s="9" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="I5" s="107" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="169" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="K5" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="170" t="s">
         <v>85</v>
       </c>
       <c r="M5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="262" t="s">
         <v>137</v>
       </c>
       <c r="O5" s="198" t="s">
@@ -2569,6 +2607,9 @@
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1380</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
       </c>
       <c r="E6" s="166"/>
       <c r="F6" s="208"/>
@@ -2576,23 +2617,23 @@
       <c r="H6" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="107" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="169" t="s">
+      <c r="L6" s="170" t="s">
         <v>96</v>
       </c>
       <c r="M6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="194" t="s">
-        <v>170</v>
+      <c r="N6" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="O6" s="176" t="s">
         <v>69</v>
@@ -2614,32 +2655,28 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="208"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="179" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="261" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="194"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="262" t="s">
         <v>177</v>
       </c>
       <c r="M7" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="194" t="s">
-        <v>85</v>
+      <c r="N7" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="P7" s="154">
         <v>0.8125</v>
@@ -2655,7 +2692,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="222"/>
+      <c r="E8" s="213"/>
       <c r="F8" s="209"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
@@ -2664,23 +2701,21 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="224" t="s">
-        <v>105</v>
-      </c>
+      <c r="J8" s="194"/>
       <c r="K8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="33" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="N8" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" s="37" t="s">
         <v>94</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P8" s="154">
         <v>0.54999999999999993</v>
@@ -2700,64 +2735,70 @@
         <f>7000+B6-C2</f>
         <v>8380</v>
       </c>
-      <c r="E9" s="223"/>
+      <c r="E9" s="260">
+        <v>14</v>
+      </c>
       <c r="F9" s="165"/>
-      <c r="G9" s="191"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="225"/>
+      <c r="J9" s="169" t="s">
+        <v>165</v>
+      </c>
       <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="180" t="s">
-        <v>62</v>
+      <c r="L9" s="176" t="s">
+        <v>170</v>
       </c>
       <c r="M9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="194" t="s">
+      <c r="N9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P9" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="R9" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="211"/>
+      <c r="E10" s="211">
+        <v>5</v>
+      </c>
       <c r="F10" s="165"/>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="107" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="33" t="s">
         <v>178</v>
       </c>
       <c r="M10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="194" t="s">
+      <c r="N10" s="37" t="s">
         <v>123</v>
       </c>
       <c r="O10" s="37" t="s">
@@ -2782,30 +2823,30 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E11" s="211"/>
       <c r="F11" s="210"/>
       <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="I11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="183" t="s">
-        <v>185</v>
+      <c r="J11" s="194" t="s">
+        <v>105</v>
       </c>
       <c r="K11" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="180" t="s">
-        <v>170</v>
+      <c r="L11" s="176" t="s">
+        <v>62</v>
       </c>
       <c r="M11" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="195" t="s">
+      <c r="N11" s="160" t="s">
         <v>78</v>
       </c>
       <c r="O11" s="199" t="s">
@@ -2822,7 +2863,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="165"/>
+      <c r="E12" s="177">
+        <v>1</v>
+      </c>
       <c r="F12" s="206"/>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
@@ -2831,19 +2874,19 @@
       <c r="I12" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="169" t="s">
-        <v>165</v>
+      <c r="J12" s="194" t="s">
+        <v>188</v>
       </c>
       <c r="K12" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="196" t="s">
+      <c r="L12" s="263" t="s">
         <v>152</v>
       </c>
       <c r="M12" s="187" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="194" t="s">
+      <c r="N12" s="37" t="s">
         <v>123</v>
       </c>
       <c r="O12" s="188" t="s">
@@ -2866,32 +2909,32 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8380</v>
+        <v>8400</v>
       </c>
       <c r="H13" s="28"/>
       <c r="J13" s="119"/>
       <c r="K13" s="119"/>
-      <c r="L13" s="213"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="215"/>
+      <c r="L13" s="216"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="216"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="220" t="s">
+      <c r="E14" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="221"/>
+      <c r="F14" s="222"/>
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G12)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="119"/>
-      <c r="L14" s="213"/>
-      <c r="P14" s="214"/>
-      <c r="Q14" s="215"/>
+      <c r="L14" s="216"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="216"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2902,20 +2945,20 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="24"/>
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="197"/>
-      <c r="L15" s="213"/>
+      <c r="L15" s="216"/>
       <c r="M15" s="119"/>
-      <c r="P15" s="214"/>
-      <c r="Q15" s="215"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="216"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="24"/>
       <c r="G16" s="20"/>
       <c r="J16" s="119"/>
@@ -2924,13 +2967,13 @@
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="24"/>
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
-      <c r="P17" s="214"/>
-      <c r="Q17" s="215"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="216"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2941,20 +2984,20 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="24"/>
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="119"/>
-      <c r="L18" s="213"/>
-      <c r="P18" s="214"/>
-      <c r="Q18" s="215"/>
+      <c r="L18" s="216"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="216"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="213"/>
+      <c r="L19" s="216"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
@@ -2964,8 +3007,6 @@
     <mergeCell ref="P13:P15"/>
     <mergeCell ref="Q13:Q15"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2976,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,18 +3042,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="230"/>
+      <c r="F1" s="231"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="229" t="s">
+      <c r="H1" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="230"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="231"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3071,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="232">
+      <c r="B2" s="233">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3057,26 +3098,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="235">
+      <c r="K2" s="236">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="237">
+      <c r="L2" s="238">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="241">
+      <c r="M2" s="242">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
         <f>SUM(E2:J48)</f>
-        <v>8340</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="233"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3091,13 +3132,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="242"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3112,9 +3153,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="242"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="243"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3196,7 +3237,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="243">
+      <c r="B7" s="244">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3213,22 +3254,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="245">
+      <c r="K7" s="246">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="247">
+      <c r="L7" s="248">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="249">
+      <c r="M7" s="250">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="244"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3249,9 +3290,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="246"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="250"/>
+      <c r="K8" s="247"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="251"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3331,7 +3372,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="243">
+      <c r="B11" s="244">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3358,7 +3399,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="244"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3415,7 +3456,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="243">
+      <c r="B14" s="244">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3438,7 +3479,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="244"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3462,7 +3503,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="232">
+      <c r="B16" s="233">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3493,7 +3534,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="233"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3511,7 +3552,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="232">
+      <c r="B18" s="233">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3540,7 +3581,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="234"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3600,7 +3641,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="239">
+      <c r="B21" s="240">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3628,7 +3669,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3680,7 +3721,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="218">
+      <c r="B24" s="219">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3709,7 +3750,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="219"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3737,7 +3778,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="218">
+      <c r="B26" s="219">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3768,7 +3809,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="251"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3799,7 +3840,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="218">
+      <c r="B28" s="219">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3821,7 +3862,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="219"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3847,7 +3888,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="218">
+      <c r="B30" s="219">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3870,7 +3911,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="219"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3897,7 +3938,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="218">
+      <c r="B32" s="219">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3919,7 +3960,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="219"/>
+      <c r="B33" s="220"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3972,7 +4013,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="218">
+      <c r="B35" s="219">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3999,7 +4040,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4021,7 +4062,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="218">
+      <c r="B37" s="219">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4054,7 +4095,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="219"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4072,7 +4113,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="218">
+      <c r="B39" s="219">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4099,7 +4140,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="251"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4127,7 +4168,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="218">
+      <c r="B41" s="219">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4154,7 +4195,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="251"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4172,7 +4213,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="219"/>
+      <c r="B43" s="220"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4201,7 +4242,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="218">
+      <c r="B44" s="219">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4227,7 +4268,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="219"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4252,7 +4293,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="218">
+      <c r="B46" s="219">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4274,7 +4315,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="251"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="212"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4304,7 +4345,9 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="18">
+        <v>20</v>
+      </c>
       <c r="J48" s="18">
         <v>30</v>
       </c>
@@ -7546,10 +7589,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="220" t="s">
+      <c r="AG24" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="221"/>
+      <c r="AH24" s="222"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7569,10 +7612,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="220" t="s">
+      <c r="AZ24" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="221"/>
+      <c r="BA24" s="222"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7592,10 +7635,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="220" t="s">
+      <c r="BR24" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="221"/>
+      <c r="BS24" s="222"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7618,10 +7661,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="228"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7658,10 +7701,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="226" t="s">
+      <c r="R26" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="228"/>
+      <c r="S26" s="229"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7698,10 +7741,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="226" t="s">
+      <c r="AG26" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="228"/>
+      <c r="AH26" s="229"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7738,10 +7781,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="226" t="s">
+      <c r="AW26" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="228"/>
+      <c r="AX26" s="229"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7778,10 +7821,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="226" t="s">
+      <c r="BM26" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="228"/>
+      <c r="BN26" s="229"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8775,7 +8818,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="255">
+      <c r="AX32" s="256">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8813,7 +8856,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="255">
+      <c r="BN32" s="256">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8962,7 +9005,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="256"/>
+      <c r="AX33" s="257"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8998,7 +9041,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="256"/>
+      <c r="BN33" s="257"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9149,7 +9192,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="257"/>
+      <c r="AX34" s="258"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9187,7 +9230,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="257"/>
+      <c r="BN34" s="258"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9418,10 +9461,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="220" t="s">
+      <c r="B36" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="221"/>
+      <c r="C36" s="222"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9439,10 +9482,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="220" t="s">
+      <c r="R36" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="221"/>
+      <c r="S36" s="222"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9460,10 +9503,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="220" t="s">
+      <c r="AG36" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="221"/>
+      <c r="AH36" s="222"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9481,10 +9524,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="220" t="s">
+      <c r="AW36" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="221"/>
+      <c r="AX36" s="222"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9502,10 +9545,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="220" t="s">
+      <c r="BM36" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="221"/>
+      <c r="BN36" s="222"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9525,10 +9568,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="228"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9568,10 +9611,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="226" t="s">
+      <c r="S38" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="228"/>
+      <c r="T38" s="229"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9611,11 +9654,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="226" t="s">
+      <c r="AJ38" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="227"/>
-      <c r="AL38" s="228"/>
+      <c r="AK38" s="228"/>
+      <c r="AL38" s="229"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9660,11 +9703,11 @@
         <f ca="1">TODAY()</f>
         <v>45288</v>
       </c>
-      <c r="BD38" s="226" t="s">
+      <c r="BD38" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="227"/>
-      <c r="BF38" s="228"/>
+      <c r="BE38" s="228"/>
+      <c r="BF38" s="229"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9704,11 +9747,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="226" t="s">
+      <c r="BW38" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="227"/>
-      <c r="BY38" s="228"/>
+      <c r="BX38" s="228"/>
+      <c r="BY38" s="229"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10660,7 +10703,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="255">
+      <c r="C44" s="256">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10698,10 +10741,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="222">
+      <c r="S44" s="223">
         <v>25</v>
       </c>
-      <c r="T44" s="255">
+      <c r="T44" s="256">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10710,7 +10753,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="224" t="s">
+      <c r="W44" s="225" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10739,10 +10782,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="222">
+      <c r="AJ44" s="223">
         <v>50</v>
       </c>
-      <c r="AK44" s="255">
+      <c r="AK44" s="256">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10752,7 +10795,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="224" t="s">
+      <c r="AO44" s="225" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10782,7 +10825,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="222">
+      <c r="BD44" s="223">
         <v>50</v>
       </c>
       <c r="BE44" s="209"/>
@@ -10793,7 +10836,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="224" t="s">
+      <c r="BI44" s="225" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -10822,7 +10865,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="222">
+      <c r="BW44" s="223">
         <v>25</v>
       </c>
       <c r="BX44" s="209"/>
@@ -10833,7 +10876,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="224" t="s">
+      <c r="CB44" s="225" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -10865,7 +10908,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="256"/>
+      <c r="C45" s="257"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10899,15 +10942,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="223"/>
-      <c r="T45" s="257"/>
+      <c r="S45" s="224"/>
+      <c r="T45" s="258"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="225"/>
+      <c r="W45" s="226"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10934,8 +10977,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="223"/>
-      <c r="AK45" s="257"/>
+      <c r="AJ45" s="224"/>
+      <c r="AK45" s="258"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -10943,7 +10986,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="225"/>
+      <c r="AO45" s="226"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -10971,7 +11014,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="223"/>
+      <c r="BD45" s="224"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -10982,7 +11025,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="225"/>
+      <c r="BI45" s="226"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11009,7 +11052,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="223"/>
+      <c r="BW45" s="224"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11018,7 +11061,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="225"/>
+      <c r="CB45" s="226"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11048,7 +11091,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="257"/>
+      <c r="C46" s="258"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11475,10 +11518,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="220" t="s">
+      <c r="B48" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="221"/>
+      <c r="C48" s="222"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11497,10 +11540,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="220" t="s">
+      <c r="S48" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="221"/>
+      <c r="T48" s="222"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11653,11 +11696,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="213"/>
+      <c r="AQ49" s="214"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="214"/>
-      <c r="AV49" s="215"/>
+      <c r="AU49" s="215"/>
+      <c r="AV49" s="216"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11669,11 +11712,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="213"/>
+      <c r="BK49" s="214"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="214"/>
-      <c r="BP49" s="215"/>
+      <c r="BO49" s="215"/>
+      <c r="BP49" s="216"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -11684,20 +11727,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="213"/>
+      <c r="CD49" s="214"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="214"/>
-      <c r="CI49" s="215"/>
+      <c r="CH49" s="215"/>
+      <c r="CI49" s="216"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
     <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="220" t="s">
+      <c r="AJ50" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="221"/>
+      <c r="AK50" s="222"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11708,19 +11751,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="213"/>
+      <c r="AQ50" s="214"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="214"/>
-      <c r="AV50" s="215"/>
+      <c r="AU50" s="215"/>
+      <c r="AV50" s="216"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="220" t="s">
+      <c r="BD50" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="221"/>
+      <c r="BE50" s="222"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -11729,18 +11772,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="213"/>
+      <c r="BK50" s="214"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="214"/>
-      <c r="BP50" s="215"/>
+      <c r="BO50" s="215"/>
+      <c r="BP50" s="216"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="220" t="s">
+      <c r="BW50" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="221"/>
+      <c r="BX50" s="222"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -11749,11 +11792,11 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="213"/>
+      <c r="CD50" s="214"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="214"/>
-      <c r="CI50" s="215"/>
+      <c r="CH50" s="215"/>
+      <c r="CI50" s="216"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
@@ -11766,14 +11809,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="202"/>
       <c r="AP51" s="203"/>
-      <c r="AQ51" s="253"/>
+      <c r="AQ51" s="254"/>
       <c r="AR51" s="202"/>
       <c r="AS51" s="204"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="254"/>
-      <c r="AV51" s="252"/>
+      <c r="AU51" s="255"/>
+      <c r="AV51" s="253"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -11785,14 +11828,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="202"/>
       <c r="BJ51" s="203"/>
-      <c r="BK51" s="253"/>
+      <c r="BK51" s="254"/>
       <c r="BL51" s="202"/>
       <c r="BM51" s="204"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="254"/>
-      <c r="BP51" s="252"/>
+      <c r="BO51" s="255"/>
+      <c r="BP51" s="253"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -11803,14 +11846,14 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="202"/>
       <c r="CC51" s="203"/>
-      <c r="CD51" s="253"/>
+      <c r="CD51" s="254"/>
       <c r="CE51" s="202"/>
       <c r="CF51" s="204" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="254"/>
-      <c r="CI51" s="252"/>
+      <c r="CH51" s="255"/>
+      <c r="CI51" s="253"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
